--- a/client-course-schedulizer/src/data/Class Schedule Meeting Patterns (2023-2024).xlsx
+++ b/client-course-schedulizer/src/data/Class Schedule Meeting Patterns (2023-2024).xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpruim/projects/github/course-schedulizer/client-course-schedulizer/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0348D09-68B9-234A-9084-9265BFA741AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C4C7D8-E56F-7F47-A905-E119464B9510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33860" yWindow="1380" windowWidth="33600" windowHeight="19020" activeTab="1" xr2:uid="{22C36063-96BD-4F71-AD8E-C377B1D967BD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19020" activeTab="2" xr2:uid="{22C36063-96BD-4F71-AD8E-C377B1D967BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="3" r:id="rId1"/>
     <sheet name="Meeting Patterns" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="139">
   <si>
     <t>MWF</t>
   </si>
@@ -900,6 +901,18 @@
   </si>
   <si>
     <t>Ensemble (MUSC-181)</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1949,381 +1962,387 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="8" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="11" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2687,144 +2706,144 @@
         <v>1</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="177" t="s">
+      <c r="K3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="178"/>
+      <c r="L3" s="95"/>
       <c r="M3"/>
-      <c r="N3" s="174" t="s">
+      <c r="N3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="176"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="93"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="G4" s="181"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="181"/>
+      <c r="I4" s="98"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="184"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
       <c r="M4"/>
-      <c r="N4" s="179" t="s">
+      <c r="N4" s="96" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="179" t="s">
+      <c r="P4" s="96" t="s">
         <v>5</v>
       </c>
       <c r="Q4" s="7"/>
-      <c r="R4" s="179" t="s">
+      <c r="R4" s="96" t="s">
         <v>6</v>
       </c>
       <c r="S4" s="64"/>
-      <c r="T4" s="179" t="s">
+      <c r="T4" s="96" t="s">
         <v>7</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
     </row>
     <row r="5" spans="2:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="137"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G5" s="182"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="182"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="185"/>
-      <c r="L5" s="186"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103"/>
       <c r="M5" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="N5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="T5" s="180"/>
+      <c r="N5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="T5" s="97"/>
     </row>
     <row r="6" spans="2:22" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="167" t="s">
+      <c r="E6" s="115" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="85">
         <v>0.35416666666666669</v>
       </c>
-      <c r="G6" s="172">
+      <c r="G6" s="128">
         <v>0.33333333333333331</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="170">
+      <c r="I6" s="124">
         <v>0.33333333333333331</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="114">
+      <c r="K6" s="126">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L6" s="89">
+      <c r="L6" s="122">
         <v>0.33333333333333331</v>
       </c>
       <c r="M6" s="85">
         <v>0.35416666666666669</v>
       </c>
-      <c r="N6" s="109">
+      <c r="N6" s="87">
         <v>0.33333333333333331</v>
       </c>
       <c r="O6" s="8"/>
-      <c r="P6" s="109">
+      <c r="P6" s="87">
         <v>0.33333333333333331</v>
       </c>
       <c r="Q6" s="8"/>
-      <c r="R6" s="109">
+      <c r="R6" s="87">
         <v>0.33333333333333331</v>
       </c>
       <c r="S6" s="8"/>
-      <c r="T6" s="109">
+      <c r="T6" s="87">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="127"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="168"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="116"/>
       <c r="F7" s="86"/>
-      <c r="G7" s="173"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="171"/>
+      <c r="I7" s="125"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="100"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="130"/>
       <c r="M7" s="86"/>
-      <c r="N7" s="145"/>
+      <c r="N7" s="88"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="145"/>
+      <c r="P7" s="88"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="145"/>
+      <c r="R7" s="88"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="145"/>
+      <c r="T7" s="88"/>
     </row>
     <row r="8" spans="2:22" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="127"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="168"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="86"/>
       <c r="G8" s="31"/>
       <c r="H8" s="8"/>
@@ -2842,10 +2861,10 @@
       <c r="T8" s="9"/>
     </row>
     <row r="9" spans="2:22" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="127"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="168"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="86"/>
       <c r="G9" s="31"/>
       <c r="H9" s="8"/>
@@ -2863,10 +2882,10 @@
       <c r="T9" s="9"/>
     </row>
     <row r="10" spans="2:22" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="127"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="168"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="116"/>
       <c r="F10" s="86"/>
       <c r="G10" s="31"/>
       <c r="H10" s="8"/>
@@ -2884,10 +2903,10 @@
       <c r="T10" s="9"/>
     </row>
     <row r="11" spans="2:22" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="127"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="168"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="116"/>
       <c r="F11" s="86"/>
       <c r="G11" s="31"/>
       <c r="H11" s="8"/>
@@ -2905,10 +2924,10 @@
       <c r="T11" s="9"/>
     </row>
     <row r="12" spans="2:22" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="127"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="168"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="116"/>
       <c r="F12" s="85">
         <v>0.375</v>
       </c>
@@ -2930,10 +2949,10 @@
       <c r="T12" s="9"/>
     </row>
     <row r="13" spans="2:22" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="127"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="168"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="31"/>
       <c r="H13" s="8"/>
@@ -2951,19 +2970,19 @@
       <c r="T13" s="9"/>
     </row>
     <row r="14" spans="2:22" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="127"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="168"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="86"/>
       <c r="G14" s="31"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="87">
+      <c r="I14" s="131">
         <v>0.36805555555555558</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="87">
+      <c r="L14" s="131">
         <v>0.36805555555555558</v>
       </c>
       <c r="M14" s="86"/>
@@ -2976,17 +2995,17 @@
       <c r="T14" s="9"/>
     </row>
     <row r="15" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="127"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="168"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="86"/>
       <c r="G15" s="31"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="88"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="8"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="88"/>
+      <c r="L15" s="132"/>
       <c r="M15" s="86"/>
       <c r="N15" s="9"/>
       <c r="O15" s="8"/>
@@ -2997,10 +3016,10 @@
       <c r="T15" s="9"/>
     </row>
     <row r="16" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="127"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="168"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="86"/>
       <c r="G16" s="31"/>
       <c r="H16" s="8"/>
@@ -3018,19 +3037,19 @@
       <c r="T16" s="9"/>
     </row>
     <row r="17" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="127"/>
-      <c r="C17" s="165"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="168"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="86"/>
-      <c r="G17" s="91">
+      <c r="G17" s="133">
         <v>0.37847222222222227</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="30"/>
       <c r="J17" s="8"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="89">
+      <c r="L17" s="122">
         <v>0.37152777777777773</v>
       </c>
       <c r="M17" s="86"/>
@@ -3043,19 +3062,19 @@
       <c r="T17" s="9"/>
     </row>
     <row r="18" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="128"/>
-      <c r="C18" s="165"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="110"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="168"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="85">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G18" s="92"/>
+      <c r="G18" s="134"/>
       <c r="H18" s="8"/>
       <c r="I18" s="38"/>
       <c r="J18" s="8"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="90"/>
+      <c r="L18" s="123"/>
       <c r="M18" s="85">
         <v>0.39583333333333331</v>
       </c>
@@ -3069,9 +3088,9 @@
     </row>
     <row r="19" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="12"/>
-      <c r="C19" s="165"/>
+      <c r="C19" s="110"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="168"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="86"/>
       <c r="G19" s="43"/>
       <c r="H19" s="8"/>
@@ -3090,9 +3109,9 @@
     </row>
     <row r="20" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
-      <c r="C20" s="165"/>
+      <c r="C20" s="110"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="168"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="86"/>
       <c r="G20" s="38"/>
       <c r="H20" s="8"/>
@@ -3107,21 +3126,21 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="9"/>
       <c r="S20" s="8"/>
-      <c r="T20" s="98">
+      <c r="T20" s="89">
         <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="21" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
-      <c r="C21" s="165"/>
+      <c r="C21" s="110"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="168"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="86"/>
-      <c r="G21" s="107">
+      <c r="G21" s="118">
         <v>0.38541666666666669</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="146">
+      <c r="I21" s="120">
         <v>0.38541666666666669</v>
       </c>
       <c r="J21" s="8"/>
@@ -3134,17 +3153,17 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="9"/>
       <c r="S21" s="8"/>
-      <c r="T21" s="153"/>
+      <c r="T21" s="90"/>
     </row>
     <row r="22" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
-      <c r="C22" s="165"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="168"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="86"/>
-      <c r="G22" s="113"/>
+      <c r="G22" s="119"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="147"/>
+      <c r="I22" s="121"/>
       <c r="J22" s="8"/>
       <c r="K22" s="33"/>
       <c r="L22" s="55"/>
@@ -3159,9 +3178,9 @@
     </row>
     <row r="23" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
-      <c r="C23" s="165"/>
+      <c r="C23" s="110"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="168"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="86"/>
       <c r="G23" s="31"/>
       <c r="H23" s="8"/>
@@ -3180,9 +3199,9 @@
     </row>
     <row r="24" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
-      <c r="C24" s="165"/>
+      <c r="C24" s="110"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="168"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="85">
         <v>0.41666666666666669</v>
       </c>
@@ -3190,7 +3209,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="37"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="154">
+      <c r="K24" s="138">
         <v>0.40277777777777773</v>
       </c>
       <c r="L24" s="54"/>
@@ -3203,22 +3222,22 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="9"/>
       <c r="S24" s="8"/>
-      <c r="T24" s="109">
+      <c r="T24" s="87">
         <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="25" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
-      <c r="C25" s="166"/>
+      <c r="C25" s="111"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="169"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="86"/>
       <c r="G25" s="31"/>
       <c r="H25" s="8"/>
       <c r="I25" s="37"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="87">
+      <c r="K25" s="139"/>
+      <c r="L25" s="131">
         <v>0.40625</v>
       </c>
       <c r="M25" s="86"/>
@@ -3228,7 +3247,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="9"/>
       <c r="S25" s="8"/>
-      <c r="T25" s="145"/>
+      <c r="T25" s="88"/>
     </row>
     <row r="26" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
@@ -3241,7 +3260,7 @@
       <c r="I26" s="37"/>
       <c r="J26" s="8"/>
       <c r="K26" s="39"/>
-      <c r="L26" s="97"/>
+      <c r="L26" s="150"/>
       <c r="M26" s="86"/>
       <c r="N26" s="9"/>
       <c r="O26" s="8"/>
@@ -3282,12 +3301,12 @@
       <c r="H28" s="8"/>
       <c r="I28" s="37"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="156" t="s">
+      <c r="K28" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="157"/>
+      <c r="L28" s="141"/>
       <c r="M28" s="86"/>
-      <c r="N28" s="98">
+      <c r="N28" s="89">
         <v>0.41666666666666669</v>
       </c>
       <c r="O28" s="8"/>
@@ -3305,14 +3324,14 @@
       <c r="F29" s="86"/>
       <c r="G29" s="31"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="140">
+      <c r="I29" s="146">
         <v>0.4201388888888889</v>
       </c>
       <c r="J29" s="8"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="159"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="143"/>
       <c r="M29" s="86"/>
-      <c r="N29" s="153"/>
+      <c r="N29" s="90"/>
       <c r="O29" s="8"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="8"/>
@@ -3330,10 +3349,10 @@
       </c>
       <c r="G30" s="31"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="144"/>
+      <c r="I30" s="147"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="159"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="143"/>
       <c r="M30" s="85">
         <v>0.4375</v>
       </c>
@@ -3355,8 +3374,8 @@
       <c r="H31" s="8"/>
       <c r="I31" s="43"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="161"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="145"/>
       <c r="M31" s="86"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -3372,7 +3391,7 @@
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="86"/>
-      <c r="G32" s="91">
+      <c r="G32" s="133">
         <v>0.43055555555555558</v>
       </c>
       <c r="H32" s="8"/>
@@ -3395,7 +3414,7 @@
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="86"/>
-      <c r="G33" s="92"/>
+      <c r="G33" s="134"/>
       <c r="H33" s="8"/>
       <c r="I33" s="30"/>
       <c r="J33" s="8"/>
@@ -3420,10 +3439,10 @@
       <c r="H34" s="8"/>
       <c r="I34" s="30"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="142">
+      <c r="K34" s="148">
         <v>0.43055555555555558</v>
       </c>
-      <c r="L34" s="89">
+      <c r="L34" s="122">
         <v>0.43055555555555558</v>
       </c>
       <c r="M34" s="86"/>
@@ -3445,8 +3464,8 @@
       <c r="H35" s="8"/>
       <c r="I35" s="49"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="100"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="130"/>
       <c r="M35" s="86"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -3464,11 +3483,11 @@
       <c r="F36" s="85">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G36" s="151" t="s">
+      <c r="G36" s="135" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="8"/>
-      <c r="I36" s="151" t="s">
+      <c r="I36" s="135" t="s">
         <v>12</v>
       </c>
       <c r="J36" s="8"/>
@@ -3493,9 +3512,9 @@
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="85"/>
-      <c r="G37" s="145"/>
+      <c r="G37" s="88"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="145"/>
+      <c r="I37" s="88"/>
       <c r="J37" s="8"/>
       <c r="K37" s="56"/>
       <c r="L37" s="55"/>
@@ -3516,9 +3535,9 @@
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="85"/>
-      <c r="G38" s="145"/>
+      <c r="G38" s="88"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="145"/>
+      <c r="I38" s="88"/>
       <c r="J38" s="8"/>
       <c r="K38" s="56"/>
       <c r="L38" s="55"/>
@@ -3527,11 +3546,11 @@
       <c r="O38" s="15"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="15"/>
-      <c r="R38" s="98">
+      <c r="R38" s="89">
         <v>0.4513888888888889</v>
       </c>
       <c r="S38" s="15"/>
-      <c r="T38" s="98">
+      <c r="T38" s="89">
         <v>0.4513888888888889</v>
       </c>
       <c r="U38" s="17"/>
@@ -3543,9 +3562,9 @@
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="85"/>
-      <c r="G39" s="152"/>
+      <c r="G39" s="136"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="152"/>
+      <c r="I39" s="136"/>
       <c r="J39" s="8"/>
       <c r="K39" s="56"/>
       <c r="L39" s="55"/>
@@ -3554,9 +3573,9 @@
       <c r="O39" s="15"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="15"/>
-      <c r="R39" s="153"/>
+      <c r="R39" s="90"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="99"/>
+      <c r="T39" s="137"/>
       <c r="U39" s="17"/>
       <c r="V39" s="17"/>
     </row>
@@ -3575,7 +3594,7 @@
       <c r="M40" s="85"/>
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
-      <c r="P40" s="98">
+      <c r="P40" s="89">
         <v>0.45833333333333331</v>
       </c>
       <c r="Q40" s="15"/>
@@ -3600,7 +3619,7 @@
       <c r="M41" s="85"/>
       <c r="N41" s="15"/>
       <c r="O41" s="15"/>
-      <c r="P41" s="153"/>
+      <c r="P41" s="90"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
@@ -3616,22 +3635,22 @@
       <c r="F42" s="85">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G42" s="148">
+      <c r="G42" s="154">
         <v>0.45833333333333331</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="146">
+      <c r="I42" s="120">
         <v>0.45833333333333331</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="56"/>
-      <c r="L42" s="87">
+      <c r="L42" s="131">
         <v>0.46527777777777773</v>
       </c>
       <c r="M42" s="85">
         <v>0.47916666666666669</v>
       </c>
-      <c r="N42" s="109">
+      <c r="N42" s="87">
         <v>0.45833333333333331</v>
       </c>
       <c r="O42" s="15"/>
@@ -3639,7 +3658,7 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="109">
+      <c r="T42" s="87">
         <v>0.45833333333333331</v>
       </c>
       <c r="U42" s="17"/>
@@ -3651,20 +3670,20 @@
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="85"/>
-      <c r="G43" s="149"/>
+      <c r="G43" s="155"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="150"/>
+      <c r="I43" s="156"/>
       <c r="J43" s="8"/>
       <c r="K43" s="56"/>
-      <c r="L43" s="88"/>
+      <c r="L43" s="132"/>
       <c r="M43" s="85"/>
-      <c r="N43" s="145"/>
+      <c r="N43" s="88"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="145"/>
+      <c r="T43" s="88"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17"/>
     </row>
@@ -3702,7 +3721,7 @@
       <c r="I45" s="36"/>
       <c r="J45" s="8"/>
       <c r="K45" s="56"/>
-      <c r="L45" s="89">
+      <c r="L45" s="122">
         <v>0.46875</v>
       </c>
       <c r="M45" s="85"/>
@@ -3710,7 +3729,7 @@
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
-      <c r="R45" s="109">
+      <c r="R45" s="87">
         <v>0.46875</v>
       </c>
       <c r="S45" s="15"/>
@@ -3729,13 +3748,13 @@
       <c r="I46" s="36"/>
       <c r="J46" s="8"/>
       <c r="K46" s="57"/>
-      <c r="L46" s="90"/>
+      <c r="L46" s="123"/>
       <c r="M46" s="85"/>
       <c r="N46" s="16"/>
       <c r="O46" s="15"/>
       <c r="P46" s="15"/>
       <c r="Q46" s="15"/>
-      <c r="R46" s="145"/>
+      <c r="R46" s="88"/>
       <c r="S46" s="15"/>
       <c r="T46" s="9"/>
       <c r="U46" s="17"/>
@@ -3818,7 +3837,7 @@
       <c r="F50" s="86"/>
       <c r="G50" s="31"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="140">
+      <c r="I50" s="146">
         <v>0.49305555555555558</v>
       </c>
       <c r="J50" s="8"/>
@@ -3841,7 +3860,7 @@
       <c r="F51" s="86"/>
       <c r="G51" s="31"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="141"/>
+      <c r="I51" s="151"/>
       <c r="J51" s="8"/>
       <c r="K51" s="56"/>
       <c r="L51" s="55"/>
@@ -3864,7 +3883,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="43"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="95">
+      <c r="K52" s="152">
         <v>0.5</v>
       </c>
       <c r="L52" s="54"/>
@@ -3883,14 +3902,14 @@
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="86"/>
-      <c r="G53" s="91">
+      <c r="G53" s="133">
         <v>0.50347222222222221</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="30"/>
       <c r="J53" s="8"/>
-      <c r="K53" s="139"/>
-      <c r="L53" s="87">
+      <c r="K53" s="153"/>
+      <c r="L53" s="131">
         <v>0.50347222222222221</v>
       </c>
       <c r="M53" s="86"/>
@@ -3910,12 +3929,12 @@
       <c r="F54" s="85">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G54" s="92"/>
+      <c r="G54" s="134"/>
       <c r="H54" s="8"/>
       <c r="I54" s="30"/>
       <c r="J54" s="8"/>
       <c r="K54" s="39"/>
-      <c r="L54" s="97"/>
+      <c r="L54" s="150"/>
       <c r="M54" s="85">
         <v>0.52083333333333337</v>
       </c>
@@ -3967,7 +3986,7 @@
       <c r="Q56" s="8"/>
       <c r="R56" s="9"/>
       <c r="S56" s="8"/>
-      <c r="T56" s="98">
+      <c r="T56" s="89">
         <v>0.51388888888888895</v>
       </c>
     </row>
@@ -3977,18 +3996,18 @@
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="86"/>
-      <c r="G57" s="107">
+      <c r="G57" s="118">
         <v>0.51041666666666663</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="89">
+      <c r="I57" s="122">
         <v>0.51041666666666663</v>
       </c>
       <c r="J57" s="8"/>
-      <c r="K57" s="142">
+      <c r="K57" s="148">
         <v>0.51041666666666663</v>
       </c>
-      <c r="L57" s="89">
+      <c r="L57" s="122">
         <v>0.51041666666666663</v>
       </c>
       <c r="M57" s="86"/>
@@ -3998,7 +4017,7 @@
       <c r="Q57" s="8"/>
       <c r="R57" s="9"/>
       <c r="S57" s="8"/>
-      <c r="T57" s="99"/>
+      <c r="T57" s="137"/>
     </row>
     <row r="58" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
@@ -4006,12 +4025,12 @@
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="86"/>
-      <c r="G58" s="113"/>
+      <c r="G58" s="119"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="100"/>
+      <c r="I58" s="130"/>
       <c r="J58" s="8"/>
-      <c r="K58" s="143"/>
-      <c r="L58" s="100"/>
+      <c r="K58" s="149"/>
+      <c r="L58" s="130"/>
       <c r="M58" s="86"/>
       <c r="N58" s="9"/>
       <c r="O58" s="8"/>
@@ -4061,7 +4080,7 @@
       </c>
       <c r="N60" s="9"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="109">
+      <c r="P60" s="87">
         <v>0.52083333333333337</v>
       </c>
       <c r="Q60" s="8"/>
@@ -4084,7 +4103,7 @@
       <c r="M61" s="86"/>
       <c r="N61" s="9"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="110"/>
+      <c r="P61" s="157"/>
       <c r="Q61" s="8"/>
       <c r="R61" s="9"/>
       <c r="S61" s="8"/>
@@ -4145,7 +4164,7 @@
       <c r="K64" s="56"/>
       <c r="L64" s="55"/>
       <c r="M64" s="86"/>
-      <c r="N64" s="98">
+      <c r="N64" s="89">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O64" s="8"/>
@@ -4163,16 +4182,16 @@
       <c r="F65" s="86"/>
       <c r="G65" s="31"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="87">
+      <c r="I65" s="131">
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="56"/>
-      <c r="L65" s="87">
+      <c r="L65" s="131">
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M65" s="86"/>
-      <c r="N65" s="99"/>
+      <c r="N65" s="137"/>
       <c r="O65" s="8"/>
       <c r="P65" s="9"/>
       <c r="Q65" s="8"/>
@@ -4190,10 +4209,10 @@
       </c>
       <c r="G66" s="31"/>
       <c r="H66" s="8"/>
-      <c r="I66" s="88"/>
+      <c r="I66" s="132"/>
       <c r="J66" s="8"/>
       <c r="K66" s="56"/>
-      <c r="L66" s="88"/>
+      <c r="L66" s="132"/>
       <c r="M66" s="85">
         <v>6.25E-2</v>
       </c>
@@ -4203,7 +4222,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="9"/>
       <c r="S66" s="8"/>
-      <c r="T66" s="109">
+      <c r="T66" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -4226,7 +4245,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="9"/>
       <c r="S67" s="8"/>
-      <c r="T67" s="145"/>
+      <c r="T67" s="88"/>
     </row>
     <row r="68" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13"/>
@@ -4234,14 +4253,14 @@
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="86"/>
-      <c r="G68" s="91">
+      <c r="G68" s="133">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="30"/>
       <c r="J68" s="8"/>
       <c r="K68" s="56"/>
-      <c r="L68" s="89">
+      <c r="L68" s="122">
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="M68" s="86"/>
@@ -4259,12 +4278,12 @@
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="86"/>
-      <c r="G69" s="92"/>
+      <c r="G69" s="134"/>
       <c r="H69" s="8"/>
       <c r="I69" s="49"/>
       <c r="J69" s="8"/>
       <c r="K69" s="56"/>
-      <c r="L69" s="90"/>
+      <c r="L69" s="123"/>
       <c r="M69" s="86"/>
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
@@ -4324,11 +4343,11 @@
       <c r="F72" s="85">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G72" s="107">
+      <c r="G72" s="118">
         <v>6.25E-2</v>
       </c>
       <c r="H72" s="8"/>
-      <c r="I72" s="146">
+      <c r="I72" s="120">
         <v>6.25E-2</v>
       </c>
       <c r="J72" s="8"/>
@@ -4337,7 +4356,7 @@
       <c r="M72" s="85">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="N72" s="109">
+      <c r="N72" s="87">
         <v>6.25E-2</v>
       </c>
       <c r="O72" s="8"/>
@@ -4353,14 +4372,14 @@
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="86"/>
-      <c r="G73" s="113"/>
+      <c r="G73" s="119"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="147"/>
+      <c r="I73" s="121"/>
       <c r="J73" s="8"/>
       <c r="K73" s="56"/>
       <c r="L73" s="55"/>
       <c r="M73" s="86"/>
-      <c r="N73" s="145"/>
+      <c r="N73" s="88"/>
       <c r="O73" s="8"/>
       <c r="P73" s="9"/>
       <c r="Q73" s="8"/>
@@ -4399,7 +4418,7 @@
       <c r="H75" s="8"/>
       <c r="I75" s="37"/>
       <c r="J75" s="8"/>
-      <c r="K75" s="95">
+      <c r="K75" s="152">
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="L75" s="54"/>
@@ -4422,8 +4441,8 @@
       <c r="H76" s="8"/>
       <c r="I76" s="37"/>
       <c r="J76" s="8"/>
-      <c r="K76" s="139"/>
-      <c r="L76" s="87">
+      <c r="K76" s="153"/>
+      <c r="L76" s="131">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="M76" s="86"/>
@@ -4446,13 +4465,13 @@
       <c r="I77" s="37"/>
       <c r="J77" s="8"/>
       <c r="K77" s="58"/>
-      <c r="L77" s="97"/>
+      <c r="L77" s="150"/>
       <c r="M77" s="86"/>
       <c r="N77" s="9"/>
       <c r="O77" s="8"/>
       <c r="P77" s="9"/>
       <c r="Q77" s="8"/>
-      <c r="R77" s="98">
+      <c r="R77" s="89">
         <v>8.6805555555555566E-2</v>
       </c>
       <c r="S77" s="8"/>
@@ -4479,7 +4498,7 @@
       <c r="O78" s="8"/>
       <c r="P78" s="9"/>
       <c r="Q78" s="8"/>
-      <c r="R78" s="99"/>
+      <c r="R78" s="137"/>
       <c r="S78" s="8"/>
       <c r="T78" s="16"/>
     </row>
@@ -4512,14 +4531,14 @@
       <c r="F80" s="86"/>
       <c r="G80" s="31"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="140">
+      <c r="I80" s="146">
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="J80" s="8"/>
-      <c r="K80" s="142">
+      <c r="K80" s="148">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="L80" s="89">
+      <c r="L80" s="122">
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="M80" s="86"/>
@@ -4529,7 +4548,7 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
-      <c r="T80" s="98">
+      <c r="T80" s="89">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
@@ -4541,10 +4560,10 @@
       <c r="F81" s="86"/>
       <c r="G81" s="31"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="141"/>
+      <c r="I81" s="151"/>
       <c r="J81" s="8"/>
-      <c r="K81" s="143"/>
-      <c r="L81" s="100"/>
+      <c r="K81" s="149"/>
+      <c r="L81" s="130"/>
       <c r="M81" s="86"/>
       <c r="N81" s="9"/>
       <c r="O81" s="8"/>
@@ -4552,7 +4571,7 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
-      <c r="T81" s="99"/>
+      <c r="T81" s="137"/>
     </row>
     <row r="82" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
@@ -4581,7 +4600,7 @@
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="86"/>
-      <c r="G83" s="91">
+      <c r="G83" s="133">
         <v>0.1076388888888889</v>
       </c>
       <c r="H83" s="8"/>
@@ -4606,7 +4625,7 @@
       <c r="F84" s="85">
         <v>0.125</v>
       </c>
-      <c r="G84" s="92"/>
+      <c r="G84" s="134"/>
       <c r="H84" s="8"/>
       <c r="I84" s="30"/>
       <c r="J84" s="8"/>
@@ -4619,11 +4638,11 @@
       <c r="O84" s="8"/>
       <c r="P84" s="9"/>
       <c r="Q84" s="8"/>
-      <c r="R84" s="109">
+      <c r="R84" s="87">
         <v>0.10416666666666667</v>
       </c>
       <c r="S84" s="8"/>
-      <c r="T84" s="109">
+      <c r="T84" s="87">
         <v>0.10416666666666667</v>
       </c>
     </row>
@@ -4644,9 +4663,9 @@
       <c r="O85" s="8"/>
       <c r="P85" s="9"/>
       <c r="Q85" s="8"/>
-      <c r="R85" s="145"/>
+      <c r="R85" s="88"/>
       <c r="S85" s="8"/>
-      <c r="T85" s="145"/>
+      <c r="T85" s="88"/>
     </row>
     <row r="86" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="13"/>
@@ -4675,11 +4694,11 @@
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="86"/>
-      <c r="G87" s="107">
+      <c r="G87" s="118">
         <v>0.11458333333333333</v>
       </c>
       <c r="H87" s="8"/>
-      <c r="I87" s="146">
+      <c r="I87" s="120">
         <v>0.11458333333333333</v>
       </c>
       <c r="J87" s="8"/>
@@ -4700,12 +4719,12 @@
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="86"/>
-      <c r="G88" s="113"/>
+      <c r="G88" s="119"/>
       <c r="H88" s="8"/>
-      <c r="I88" s="147"/>
+      <c r="I88" s="121"/>
       <c r="J88" s="8"/>
       <c r="K88" s="56"/>
-      <c r="L88" s="87">
+      <c r="L88" s="131">
         <v>0.125</v>
       </c>
       <c r="M88" s="86"/>
@@ -4728,7 +4747,7 @@
       <c r="I89" s="37"/>
       <c r="J89" s="8"/>
       <c r="K89" s="56"/>
-      <c r="L89" s="88"/>
+      <c r="L89" s="132"/>
       <c r="M89" s="86"/>
       <c r="N89" s="9"/>
       <c r="O89" s="8"/>
@@ -4774,7 +4793,7 @@
       <c r="I91" s="37"/>
       <c r="J91" s="8"/>
       <c r="K91" s="56"/>
-      <c r="L91" s="89">
+      <c r="L91" s="122">
         <v>0.12847222222222224</v>
       </c>
       <c r="M91" s="86"/>
@@ -4797,7 +4816,7 @@
       <c r="I92" s="37"/>
       <c r="J92" s="8"/>
       <c r="K92" s="56"/>
-      <c r="L92" s="90"/>
+      <c r="L92" s="123"/>
       <c r="M92" s="86"/>
       <c r="N92" s="9"/>
       <c r="O92" s="8"/>
@@ -4841,11 +4860,11 @@
       <c r="K94" s="56"/>
       <c r="L94" s="55"/>
       <c r="M94" s="86"/>
-      <c r="N94" s="98">
+      <c r="N94" s="89">
         <v>0.14583333333333334</v>
       </c>
       <c r="O94" s="8"/>
-      <c r="P94" s="98">
+      <c r="P94" s="89">
         <v>0.14583333333333334</v>
       </c>
       <c r="Q94" s="8"/>
@@ -4861,16 +4880,16 @@
       <c r="F95" s="86"/>
       <c r="G95" s="31"/>
       <c r="H95" s="8"/>
-      <c r="I95" s="140">
+      <c r="I95" s="146">
         <v>0.14930555555555555</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="56"/>
       <c r="L95" s="55"/>
       <c r="M95" s="86"/>
-      <c r="N95" s="99"/>
+      <c r="N95" s="137"/>
       <c r="O95" s="8"/>
-      <c r="P95" s="99"/>
+      <c r="P95" s="137"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="9"/>
       <c r="S95" s="8"/>
@@ -4886,7 +4905,7 @@
       </c>
       <c r="G96" s="31"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="144"/>
+      <c r="I96" s="147"/>
       <c r="J96" s="8"/>
       <c r="K96" s="56"/>
       <c r="L96" s="55"/>
@@ -4928,13 +4947,13 @@
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="86"/>
-      <c r="G98" s="91">
+      <c r="G98" s="133">
         <v>0.15972222222222224</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="28"/>
       <c r="J98" s="8"/>
-      <c r="K98" s="95">
+      <c r="K98" s="152">
         <v>0.15972222222222224</v>
       </c>
       <c r="L98" s="54"/>
@@ -4945,7 +4964,7 @@
       <c r="Q98" s="8"/>
       <c r="R98" s="9"/>
       <c r="S98" s="8"/>
-      <c r="T98" s="98">
+      <c r="T98" s="89">
         <v>0.15972222222222224</v>
       </c>
     </row>
@@ -4955,12 +4974,12 @@
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="86"/>
-      <c r="G99" s="92"/>
+      <c r="G99" s="134"/>
       <c r="H99" s="8"/>
       <c r="I99" s="38"/>
       <c r="J99" s="8"/>
-      <c r="K99" s="139"/>
-      <c r="L99" s="87">
+      <c r="K99" s="153"/>
+      <c r="L99" s="131">
         <v>0.16319444444444445</v>
       </c>
       <c r="M99" s="86"/>
@@ -4970,13 +4989,13 @@
       <c r="Q99" s="8"/>
       <c r="R99" s="9"/>
       <c r="S99" s="8"/>
-      <c r="T99" s="99"/>
+      <c r="T99" s="137"/>
     </row>
     <row r="100" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F100" s="86"/>
       <c r="G100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="L100" s="97"/>
+      <c r="L100" s="150"/>
       <c r="M100" s="86"/>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
@@ -5012,7 +5031,7 @@
       <c r="Q102" s="19"/>
       <c r="R102" s="9"/>
       <c r="S102" s="19"/>
-      <c r="T102" s="109">
+      <c r="T102" s="87">
         <v>0.16666666666666666</v>
       </c>
       <c r="U102" s="20"/>
@@ -5029,7 +5048,7 @@
       <c r="Q103" s="19"/>
       <c r="R103" s="9"/>
       <c r="S103" s="19"/>
-      <c r="T103" s="110"/>
+      <c r="T103" s="157"/>
       <c r="U103" s="20"/>
       <c r="V103" s="20"/>
     </row>
@@ -5248,11 +5267,11 @@
       <c r="O116" s="19"/>
       <c r="P116" s="19"/>
       <c r="Q116" s="19"/>
-      <c r="R116" s="98">
+      <c r="R116" s="89">
         <v>0.22222222222222221</v>
       </c>
       <c r="S116" s="19"/>
-      <c r="T116" s="110">
+      <c r="T116" s="157">
         <v>0.22222222222222221</v>
       </c>
       <c r="U116" s="20"/>
@@ -5269,9 +5288,9 @@
       <c r="O117" s="19"/>
       <c r="P117" s="19"/>
       <c r="Q117" s="19"/>
-      <c r="R117" s="99"/>
+      <c r="R117" s="137"/>
       <c r="S117" s="19"/>
-      <c r="T117" s="138"/>
+      <c r="T117" s="158"/>
       <c r="U117" s="20"/>
       <c r="V117" s="20"/>
     </row>
@@ -5310,37 +5329,37 @@
       <c r="V119" s="20"/>
     </row>
     <row r="120" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="137"/>
-      <c r="C120" s="137"/>
-      <c r="D120" s="137"/>
-      <c r="E120" s="137"/>
+      <c r="B120" s="105"/>
+      <c r="C120" s="105"/>
+      <c r="D120" s="105"/>
+      <c r="E120" s="105"/>
       <c r="F120" s="1">
         <v>0.25</v>
       </c>
-      <c r="G120" s="116" t="s">
+      <c r="G120" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="H120" s="117"/>
-      <c r="I120" s="117"/>
-      <c r="J120" s="117"/>
-      <c r="K120" s="117"/>
-      <c r="L120" s="118"/>
+      <c r="H120" s="172"/>
+      <c r="I120" s="172"/>
+      <c r="J120" s="172"/>
+      <c r="K120" s="172"/>
+      <c r="L120" s="173"/>
       <c r="M120" s="1">
         <v>0.25</v>
       </c>
-      <c r="N120" s="125" t="s">
+      <c r="N120" s="167" t="s">
         <v>14</v>
       </c>
       <c r="O120" s="6"/>
-      <c r="P120" s="125" t="s">
+      <c r="P120" s="167" t="s">
         <v>15</v>
       </c>
       <c r="Q120" s="7"/>
-      <c r="R120" s="125" t="s">
+      <c r="R120" s="167" t="s">
         <v>16</v>
       </c>
       <c r="S120" s="64"/>
-      <c r="T120" s="125" t="s">
+      <c r="T120" s="167" t="s">
         <v>17</v>
       </c>
       <c r="U120" s="6"/>
@@ -5350,33 +5369,33 @@
       <c r="F121" s="85">
         <v>0.27083333333333331</v>
       </c>
-      <c r="G121" s="119"/>
-      <c r="H121" s="120"/>
-      <c r="I121" s="120"/>
-      <c r="J121" s="120"/>
-      <c r="K121" s="120"/>
-      <c r="L121" s="121"/>
+      <c r="G121" s="174"/>
+      <c r="H121" s="175"/>
+      <c r="I121" s="175"/>
+      <c r="J121" s="175"/>
+      <c r="K121" s="175"/>
+      <c r="L121" s="176"/>
       <c r="M121" s="85">
         <v>0.27083333333333331</v>
       </c>
-      <c r="N121" s="125"/>
-      <c r="P121" s="125"/>
-      <c r="R121" s="125"/>
-      <c r="T121" s="125"/>
+      <c r="N121" s="167"/>
+      <c r="P121" s="167"/>
+      <c r="R121" s="167"/>
+      <c r="T121" s="167"/>
     </row>
     <row r="122" spans="2:22" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F122" s="86"/>
-      <c r="G122" s="122"/>
-      <c r="H122" s="123"/>
-      <c r="I122" s="123"/>
-      <c r="J122" s="123"/>
-      <c r="K122" s="123"/>
-      <c r="L122" s="124"/>
+      <c r="G122" s="177"/>
+      <c r="H122" s="178"/>
+      <c r="I122" s="178"/>
+      <c r="J122" s="178"/>
+      <c r="K122" s="178"/>
+      <c r="L122" s="179"/>
       <c r="M122" s="86"/>
-      <c r="N122" s="125"/>
-      <c r="P122" s="125"/>
-      <c r="R122" s="125"/>
-      <c r="T122" s="125"/>
+      <c r="N122" s="167"/>
+      <c r="P122" s="167"/>
+      <c r="R122" s="167"/>
+      <c r="T122" s="167"/>
     </row>
     <row r="123" spans="2:22" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F123" s="86"/>
@@ -5400,90 +5419,90 @@
       <c r="M126" s="86"/>
     </row>
     <row r="127" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="126" t="s">
+      <c r="B127" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="129" t="s">
+      <c r="C127" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="D127" s="131" t="s">
+      <c r="D127" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="E127" s="134" t="s">
+      <c r="E127" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="F127" s="111">
+      <c r="F127" s="165">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G127" s="107">
+      <c r="G127" s="118">
         <v>0.27083333333333331</v>
       </c>
       <c r="H127" s="63"/>
-      <c r="I127" s="103">
+      <c r="I127" s="169">
         <v>0.27083333333333331</v>
       </c>
       <c r="J127" s="63"/>
-      <c r="K127" s="114">
+      <c r="K127" s="126">
         <v>0.27083333333333331</v>
       </c>
-      <c r="L127" s="89">
+      <c r="L127" s="122">
         <v>0.27083333333333331</v>
       </c>
-      <c r="M127" s="111">
+      <c r="M127" s="165">
         <v>0.29166666666666669</v>
       </c>
-      <c r="N127" s="109">
+      <c r="N127" s="87">
         <v>0.27083333333333331</v>
       </c>
       <c r="O127" s="9"/>
-      <c r="P127" s="109">
+      <c r="P127" s="87">
         <v>0.27083333333333331</v>
       </c>
       <c r="Q127" s="9"/>
-      <c r="R127" s="109">
+      <c r="R127" s="87">
         <v>0.27083333333333331</v>
       </c>
       <c r="S127" s="22"/>
-      <c r="T127" s="109">
+      <c r="T127" s="87">
         <v>0.27083333333333331</v>
       </c>
       <c r="U127" s="14"/>
     </row>
     <row r="128" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="127"/>
-      <c r="C128" s="130"/>
-      <c r="D128" s="132"/>
-      <c r="E128" s="135"/>
-      <c r="F128" s="112"/>
-      <c r="G128" s="113"/>
+      <c r="B128" s="107"/>
+      <c r="C128" s="161"/>
+      <c r="D128" s="113"/>
+      <c r="E128" s="163"/>
+      <c r="F128" s="166"/>
+      <c r="G128" s="119"/>
       <c r="H128" s="63"/>
-      <c r="I128" s="104"/>
+      <c r="I128" s="170"/>
       <c r="J128" s="25"/>
-      <c r="K128" s="115"/>
-      <c r="L128" s="100"/>
-      <c r="M128" s="112"/>
-      <c r="N128" s="110"/>
+      <c r="K128" s="127"/>
+      <c r="L128" s="130"/>
+      <c r="M128" s="166"/>
+      <c r="N128" s="157"/>
       <c r="O128" s="8"/>
-      <c r="P128" s="110"/>
+      <c r="P128" s="157"/>
       <c r="Q128" s="8"/>
-      <c r="R128" s="110"/>
+      <c r="R128" s="157"/>
       <c r="S128" s="8"/>
-      <c r="T128" s="110"/>
+      <c r="T128" s="157"/>
       <c r="U128" s="14"/>
     </row>
     <row r="129" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="127"/>
-      <c r="C129" s="130"/>
-      <c r="D129" s="132"/>
-      <c r="E129" s="135"/>
-      <c r="F129" s="112"/>
+      <c r="B129" s="107"/>
+      <c r="C129" s="161"/>
+      <c r="D129" s="113"/>
+      <c r="E129" s="163"/>
+      <c r="F129" s="166"/>
       <c r="G129" s="23"/>
       <c r="H129" s="63"/>
       <c r="I129" s="29"/>
       <c r="J129" s="26"/>
       <c r="K129" s="10"/>
       <c r="L129" s="54"/>
-      <c r="M129" s="112"/>
+      <c r="M129" s="166"/>
       <c r="N129" s="9"/>
       <c r="O129" s="8"/>
       <c r="P129" s="9"/>
@@ -5494,18 +5513,18 @@
       <c r="U129" s="14"/>
     </row>
     <row r="130" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="127"/>
-      <c r="C130" s="130"/>
-      <c r="D130" s="132"/>
-      <c r="E130" s="135"/>
-      <c r="F130" s="112"/>
+      <c r="B130" s="107"/>
+      <c r="C130" s="161"/>
+      <c r="D130" s="113"/>
+      <c r="E130" s="163"/>
+      <c r="F130" s="166"/>
       <c r="G130" s="23"/>
       <c r="H130" s="63"/>
       <c r="I130" s="34"/>
       <c r="J130" s="26"/>
       <c r="K130" s="10"/>
       <c r="L130" s="55"/>
-      <c r="M130" s="112"/>
+      <c r="M130" s="166"/>
       <c r="N130" s="9"/>
       <c r="O130" s="8"/>
       <c r="P130" s="9"/>
@@ -5516,18 +5535,18 @@
       <c r="U130" s="14"/>
     </row>
     <row r="131" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="127"/>
-      <c r="C131" s="130"/>
-      <c r="D131" s="132"/>
-      <c r="E131" s="135"/>
-      <c r="F131" s="112"/>
+      <c r="B131" s="107"/>
+      <c r="C131" s="161"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="163"/>
+      <c r="F131" s="166"/>
       <c r="G131" s="23"/>
       <c r="H131" s="63"/>
       <c r="I131" s="34"/>
       <c r="J131" s="26"/>
       <c r="K131" s="10"/>
       <c r="L131" s="55"/>
-      <c r="M131" s="112"/>
+      <c r="M131" s="166"/>
       <c r="N131" s="9"/>
       <c r="O131" s="8"/>
       <c r="P131" s="9"/>
@@ -5538,18 +5557,18 @@
       <c r="U131" s="14"/>
     </row>
     <row r="132" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="127"/>
-      <c r="C132" s="130"/>
-      <c r="D132" s="132"/>
-      <c r="E132" s="135"/>
-      <c r="F132" s="112"/>
+      <c r="B132" s="107"/>
+      <c r="C132" s="161"/>
+      <c r="D132" s="113"/>
+      <c r="E132" s="163"/>
+      <c r="F132" s="166"/>
       <c r="G132" s="23"/>
       <c r="H132" s="63"/>
       <c r="I132" s="34"/>
       <c r="J132" s="26"/>
       <c r="K132" s="10"/>
       <c r="L132" s="55"/>
-      <c r="M132" s="112"/>
+      <c r="M132" s="166"/>
       <c r="N132" s="9"/>
       <c r="O132" s="8"/>
       <c r="P132" s="9"/>
@@ -5560,10 +5579,10 @@
       <c r="U132" s="14"/>
     </row>
     <row r="133" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="127"/>
-      <c r="C133" s="130"/>
-      <c r="D133" s="132"/>
-      <c r="E133" s="135"/>
+      <c r="B133" s="107"/>
+      <c r="C133" s="161"/>
+      <c r="D133" s="113"/>
+      <c r="E133" s="163"/>
       <c r="F133" s="85">
         <v>0.3125</v>
       </c>
@@ -5585,10 +5604,10 @@
       <c r="T133" s="9"/>
     </row>
     <row r="134" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="127"/>
-      <c r="C134" s="130"/>
-      <c r="D134" s="132"/>
-      <c r="E134" s="135"/>
+      <c r="B134" s="107"/>
+      <c r="C134" s="161"/>
+      <c r="D134" s="113"/>
+      <c r="E134" s="163"/>
       <c r="F134" s="86"/>
       <c r="G134" s="23"/>
       <c r="H134" s="63"/>
@@ -5606,17 +5625,17 @@
       <c r="T134" s="9"/>
     </row>
     <row r="135" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="127"/>
-      <c r="C135" s="130"/>
-      <c r="D135" s="132"/>
-      <c r="E135" s="135"/>
+      <c r="B135" s="107"/>
+      <c r="C135" s="161"/>
+      <c r="D135" s="113"/>
+      <c r="E135" s="163"/>
       <c r="F135" s="86"/>
       <c r="G135" s="23"/>
       <c r="H135" s="63"/>
       <c r="I135" s="34"/>
       <c r="J135" s="26"/>
       <c r="K135" s="11"/>
-      <c r="L135" s="87">
+      <c r="L135" s="131">
         <v>0.30555555555555552</v>
       </c>
       <c r="M135" s="86"/>
@@ -5629,17 +5648,17 @@
       <c r="T135" s="9"/>
     </row>
     <row r="136" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="127"/>
-      <c r="C136" s="130"/>
-      <c r="D136" s="132"/>
-      <c r="E136" s="135"/>
+      <c r="B136" s="107"/>
+      <c r="C136" s="161"/>
+      <c r="D136" s="113"/>
+      <c r="E136" s="163"/>
       <c r="F136" s="86"/>
       <c r="G136" s="23"/>
       <c r="H136" s="63"/>
       <c r="I136" s="34"/>
       <c r="J136" s="27"/>
       <c r="K136" s="11"/>
-      <c r="L136" s="88"/>
+      <c r="L136" s="132"/>
       <c r="M136" s="86"/>
       <c r="N136" s="9"/>
       <c r="O136" s="8"/>
@@ -5650,10 +5669,10 @@
       <c r="T136" s="9"/>
     </row>
     <row r="137" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="127"/>
-      <c r="C137" s="130"/>
-      <c r="D137" s="133"/>
-      <c r="E137" s="135"/>
+      <c r="B137" s="107"/>
+      <c r="C137" s="161"/>
+      <c r="D137" s="114"/>
+      <c r="E137" s="163"/>
       <c r="F137" s="86"/>
       <c r="G137" s="23"/>
       <c r="I137" s="29"/>
@@ -5669,12 +5688,12 @@
       <c r="T137" s="9"/>
     </row>
     <row r="138" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="127"/>
-      <c r="C138" s="130"/>
+      <c r="B138" s="107"/>
+      <c r="C138" s="161"/>
       <c r="D138" s="12"/>
-      <c r="E138" s="135"/>
+      <c r="E138" s="163"/>
       <c r="F138" s="86"/>
-      <c r="G138" s="91">
+      <c r="G138" s="133">
         <v>0.31597222222222221</v>
       </c>
       <c r="I138" s="29"/>
@@ -5690,17 +5709,17 @@
       <c r="T138" s="9"/>
     </row>
     <row r="139" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="128"/>
-      <c r="C139" s="130"/>
+      <c r="B139" s="108"/>
+      <c r="C139" s="161"/>
       <c r="D139" s="12"/>
-      <c r="E139" s="135"/>
+      <c r="E139" s="163"/>
       <c r="F139" s="85">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G139" s="92"/>
+      <c r="G139" s="134"/>
       <c r="I139" s="29"/>
       <c r="K139" s="11"/>
-      <c r="L139" s="89" t="s">
+      <c r="L139" s="122" t="s">
         <v>20</v>
       </c>
       <c r="M139" s="85">
@@ -5716,13 +5735,13 @@
     </row>
     <row r="140" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B140" s="12"/>
-      <c r="C140" s="130"/>
+      <c r="C140" s="161"/>
       <c r="D140" s="12"/>
-      <c r="E140" s="135"/>
+      <c r="E140" s="163"/>
       <c r="F140" s="86"/>
       <c r="I140" s="34"/>
       <c r="K140" s="10"/>
-      <c r="L140" s="90"/>
+      <c r="L140" s="123"/>
       <c r="M140" s="86"/>
       <c r="N140" s="9"/>
       <c r="O140" s="8"/>
@@ -5734,9 +5753,9 @@
     </row>
     <row r="141" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B141" s="12"/>
-      <c r="C141" s="130"/>
+      <c r="C141" s="161"/>
       <c r="D141" s="12"/>
-      <c r="E141" s="135"/>
+      <c r="E141" s="163"/>
       <c r="F141" s="86"/>
       <c r="I141" s="34"/>
       <c r="K141" s="10"/>
@@ -5748,17 +5767,17 @@
       <c r="Q141" s="8"/>
       <c r="R141" s="9"/>
       <c r="S141" s="8"/>
-      <c r="T141" s="98">
+      <c r="T141" s="89">
         <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="142" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B142" s="12"/>
-      <c r="C142" s="130"/>
+      <c r="C142" s="161"/>
       <c r="D142" s="12"/>
-      <c r="E142" s="135"/>
+      <c r="E142" s="163"/>
       <c r="F142" s="86"/>
-      <c r="G142" s="107">
+      <c r="G142" s="118">
         <v>0.32291666666666669</v>
       </c>
       <c r="I142" s="34"/>
@@ -5771,15 +5790,15 @@
       <c r="Q142" s="8"/>
       <c r="R142" s="9"/>
       <c r="S142" s="8"/>
-      <c r="T142" s="99"/>
+      <c r="T142" s="137"/>
     </row>
     <row r="143" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B143" s="12"/>
-      <c r="C143" s="130"/>
+      <c r="C143" s="161"/>
       <c r="D143" s="12"/>
-      <c r="E143" s="135"/>
+      <c r="E143" s="163"/>
       <c r="F143" s="86"/>
-      <c r="G143" s="108"/>
+      <c r="G143" s="168"/>
       <c r="I143" s="34"/>
       <c r="K143" s="10"/>
       <c r="L143" s="55"/>
@@ -5794,9 +5813,9 @@
     </row>
     <row r="144" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B144" s="12"/>
-      <c r="C144" s="130"/>
+      <c r="C144" s="161"/>
       <c r="D144" s="12"/>
-      <c r="E144" s="135"/>
+      <c r="E144" s="163"/>
       <c r="F144" s="86"/>
       <c r="G144" s="23"/>
       <c r="I144" s="34"/>
@@ -5813,17 +5832,17 @@
     </row>
     <row r="145" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B145" s="12"/>
-      <c r="C145" s="130"/>
+      <c r="C145" s="161"/>
       <c r="D145" s="12"/>
-      <c r="E145" s="135"/>
+      <c r="E145" s="163"/>
       <c r="F145" s="85">
         <v>0.35416666666666669</v>
       </c>
       <c r="G145" s="23"/>
-      <c r="I145" s="93">
+      <c r="I145" s="180">
         <v>0.34027777777777773</v>
       </c>
-      <c r="K145" s="95">
+      <c r="K145" s="152">
         <v>0.34027777777777773</v>
       </c>
       <c r="L145" s="55"/>
@@ -5840,13 +5859,13 @@
     </row>
     <row r="146" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B146" s="12"/>
-      <c r="C146" s="130"/>
+      <c r="C146" s="161"/>
       <c r="D146" s="12"/>
-      <c r="E146" s="136"/>
+      <c r="E146" s="164"/>
       <c r="F146" s="86"/>
       <c r="G146" s="23"/>
-      <c r="I146" s="94"/>
-      <c r="K146" s="96"/>
+      <c r="I146" s="181"/>
+      <c r="K146" s="191"/>
       <c r="L146" s="55"/>
       <c r="M146" s="86"/>
       <c r="N146" s="9"/>
@@ -5859,17 +5878,17 @@
     </row>
     <row r="147" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B147" s="13"/>
-      <c r="C147" s="80" t="s">
+      <c r="C147" s="186" t="s">
         <v>21</v>
       </c>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
       <c r="F147" s="86"/>
       <c r="G147" s="23"/>
-      <c r="K147" s="83" t="s">
+      <c r="K147" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="L147" s="87" t="s">
+      <c r="L147" s="131" t="s">
         <v>23</v>
       </c>
       <c r="M147" s="86"/>
@@ -5882,11 +5901,11 @@
       <c r="T147" s="8"/>
     </row>
     <row r="148" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="81"/>
+      <c r="C148" s="187"/>
       <c r="F148" s="86"/>
       <c r="G148" s="23"/>
-      <c r="K148" s="84"/>
-      <c r="L148" s="88"/>
+      <c r="K148" s="190"/>
+      <c r="L148" s="132"/>
       <c r="M148" s="86"/>
       <c r="N148" s="9"/>
       <c r="O148" s="8"/>
@@ -5897,17 +5916,17 @@
       <c r="T148" s="8"/>
     </row>
     <row r="149" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="81"/>
+      <c r="C149" s="187"/>
       <c r="F149" s="86"/>
       <c r="G149" s="23"/>
-      <c r="I149" s="103">
+      <c r="I149" s="169">
         <v>0.34722222222222227</v>
       </c>
-      <c r="K149" s="105">
+      <c r="K149" s="184">
         <v>0.34722222222222227</v>
       </c>
       <c r="M149" s="86"/>
-      <c r="N149" s="98">
+      <c r="N149" s="89">
         <v>0.35416666666666669</v>
       </c>
       <c r="O149" s="8"/>
@@ -5918,13 +5937,13 @@
       <c r="T149" s="8"/>
     </row>
     <row r="150" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="81"/>
+      <c r="C150" s="187"/>
       <c r="F150" s="86"/>
       <c r="G150" s="23"/>
-      <c r="I150" s="104"/>
-      <c r="K150" s="106"/>
+      <c r="I150" s="170"/>
+      <c r="K150" s="185"/>
       <c r="M150" s="86"/>
-      <c r="N150" s="99"/>
+      <c r="N150" s="137"/>
       <c r="O150" s="8"/>
       <c r="P150" s="9"/>
       <c r="Q150" s="8"/>
@@ -5933,14 +5952,14 @@
       <c r="T150" s="8"/>
     </row>
     <row r="151" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C151" s="81"/>
+      <c r="C151" s="187"/>
       <c r="F151" s="85">
         <v>0.375</v>
       </c>
       <c r="G151" s="23"/>
       <c r="I151" s="29"/>
       <c r="K151" s="24"/>
-      <c r="L151" s="89" t="s">
+      <c r="L151" s="122" t="s">
         <v>24</v>
       </c>
       <c r="M151" s="85">
@@ -5955,12 +5974,12 @@
       <c r="T151" s="8"/>
     </row>
     <row r="152" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C152" s="81"/>
+      <c r="C152" s="187"/>
       <c r="F152" s="86"/>
       <c r="G152" s="23"/>
       <c r="I152" s="34"/>
       <c r="K152" s="24"/>
-      <c r="L152" s="90"/>
+      <c r="L152" s="123"/>
       <c r="M152" s="86"/>
       <c r="N152" s="8"/>
       <c r="O152" s="8"/>
@@ -5971,9 +5990,9 @@
       <c r="T152" s="8"/>
     </row>
     <row r="153" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C153" s="81"/>
+      <c r="C153" s="187"/>
       <c r="F153" s="86"/>
-      <c r="G153" s="91">
+      <c r="G153" s="133">
         <v>0.36805555555555558</v>
       </c>
       <c r="I153" s="34"/>
@@ -5989,9 +6008,9 @@
       <c r="T153" s="8"/>
     </row>
     <row r="154" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="81"/>
+      <c r="C154" s="187"/>
       <c r="F154" s="86"/>
-      <c r="G154" s="92"/>
+      <c r="G154" s="134"/>
       <c r="I154" s="34"/>
       <c r="K154" s="24"/>
       <c r="L154" s="55"/>
@@ -6005,7 +6024,7 @@
       <c r="T154" s="8"/>
     </row>
     <row r="155" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C155" s="81"/>
+      <c r="C155" s="187"/>
       <c r="F155" s="86"/>
       <c r="I155" s="34"/>
       <c r="K155" s="24"/>
@@ -6020,7 +6039,7 @@
       <c r="T155" s="8"/>
     </row>
     <row r="156" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C156" s="81"/>
+      <c r="C156" s="187"/>
       <c r="F156" s="86"/>
       <c r="I156" s="34"/>
       <c r="K156" s="24"/>
@@ -6035,7 +6054,7 @@
       <c r="T156" s="8"/>
     </row>
     <row r="157" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C157" s="81"/>
+      <c r="C157" s="187"/>
       <c r="F157" s="85">
         <v>0.39583333333333331</v>
       </c>
@@ -6054,7 +6073,7 @@
       <c r="T157" s="8"/>
     </row>
     <row r="158" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C158" s="81"/>
+      <c r="C158" s="187"/>
       <c r="F158" s="86"/>
       <c r="I158" s="34"/>
       <c r="K158" s="24"/>
@@ -6069,11 +6088,11 @@
       <c r="T158" s="8"/>
     </row>
     <row r="159" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C159" s="81"/>
+      <c r="C159" s="187"/>
       <c r="F159" s="86"/>
       <c r="I159" s="29"/>
       <c r="K159" s="24"/>
-      <c r="L159" s="87" t="s">
+      <c r="L159" s="131" t="s">
         <v>25</v>
       </c>
       <c r="M159" s="86"/>
@@ -6081,36 +6100,36 @@
       <c r="O159" s="8"/>
       <c r="P159" s="9"/>
       <c r="Q159" s="8"/>
-      <c r="R159" s="98">
+      <c r="R159" s="89">
         <v>0.3888888888888889</v>
       </c>
       <c r="S159" s="8"/>
       <c r="T159" s="8"/>
     </row>
     <row r="160" spans="2:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C160" s="81"/>
+      <c r="C160" s="187"/>
       <c r="F160" s="86"/>
       <c r="I160" s="29"/>
       <c r="K160" s="24"/>
-      <c r="L160" s="88"/>
+      <c r="L160" s="132"/>
       <c r="M160" s="86"/>
       <c r="N160" s="8"/>
       <c r="O160" s="8"/>
       <c r="P160" s="9"/>
       <c r="Q160" s="8"/>
-      <c r="R160" s="99"/>
+      <c r="R160" s="137"/>
       <c r="S160" s="8"/>
       <c r="T160" s="8"/>
     </row>
     <row r="161" spans="3:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C161" s="81"/>
+      <c r="C161" s="187"/>
       <c r="F161" s="86"/>
       <c r="I161" s="29"/>
       <c r="K161" s="24"/>
       <c r="M161" s="86"/>
       <c r="N161" s="8"/>
       <c r="O161" s="8"/>
-      <c r="P161" s="98">
+      <c r="P161" s="89">
         <v>0.39583333333333331</v>
       </c>
       <c r="Q161" s="8"/>
@@ -6119,21 +6138,21 @@
       <c r="T161" s="8"/>
     </row>
     <row r="162" spans="3:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C162" s="81"/>
+      <c r="C162" s="187"/>
       <c r="F162" s="86"/>
       <c r="I162" s="34"/>
       <c r="K162" s="24"/>
       <c r="M162" s="86"/>
       <c r="N162" s="8"/>
       <c r="O162" s="8"/>
-      <c r="P162" s="99"/>
+      <c r="P162" s="137"/>
       <c r="Q162" s="8"/>
       <c r="R162" s="8"/>
       <c r="S162" s="8"/>
       <c r="T162" s="8"/>
     </row>
     <row r="163" spans="3:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C163" s="81"/>
+      <c r="C163" s="187"/>
       <c r="F163" s="85">
         <v>0.41666666666666669</v>
       </c>
@@ -6144,21 +6163,21 @@
       </c>
     </row>
     <row r="164" spans="3:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C164" s="81"/>
+      <c r="C164" s="187"/>
       <c r="F164" s="86"/>
       <c r="I164" s="34"/>
       <c r="K164" s="24"/>
       <c r="M164" s="86"/>
     </row>
     <row r="165" spans="3:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C165" s="81"/>
+      <c r="C165" s="187"/>
       <c r="F165" s="86"/>
       <c r="I165" s="34"/>
       <c r="K165" s="24"/>
       <c r="M165" s="86"/>
     </row>
     <row r="166" spans="3:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C166" s="82"/>
+      <c r="C166" s="188"/>
       <c r="F166" s="86"/>
       <c r="I166" s="34"/>
       <c r="K166" s="24"/>
@@ -6166,122 +6185,85 @@
     </row>
     <row r="167" spans="3:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F167" s="86"/>
-      <c r="I167" s="93">
+      <c r="I167" s="180">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K167" s="101">
+      <c r="K167" s="182">
         <v>0.41666666666666669</v>
       </c>
       <c r="M167" s="86"/>
     </row>
     <row r="168" spans="3:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F168" s="86"/>
-      <c r="I168" s="94"/>
-      <c r="K168" s="102"/>
+      <c r="I168" s="181"/>
+      <c r="K168" s="183"/>
       <c r="M168" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="187">
-    <mergeCell ref="M6:M11"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="C6:C25"/>
-    <mergeCell ref="D6:D16"/>
-    <mergeCell ref="E6:E25"/>
-    <mergeCell ref="M18:M23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="M24:M29"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M12:M17"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="M36:M41"/>
-    <mergeCell ref="F36:F41"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="K28:L31"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="M30:M35"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T56:T57"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="M48:M53"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="M54:M59"/>
-    <mergeCell ref="M42:M47"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="F42:F47"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="F54:F59"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="F60:F65"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M66:M71"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="T66:T67"/>
-    <mergeCell ref="F66:F71"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="R84:R85"/>
-    <mergeCell ref="T84:T85"/>
-    <mergeCell ref="F84:F89"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="M72:M77"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="F72:F77"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="C147:C166"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="M157:M162"/>
+    <mergeCell ref="F157:F162"/>
+    <mergeCell ref="M108:M113"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="M114:M119"/>
+    <mergeCell ref="F114:F119"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="L159:L160"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="M145:M150"/>
+    <mergeCell ref="F145:F150"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="R159:R160"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="M133:M138"/>
+    <mergeCell ref="F133:F138"/>
+    <mergeCell ref="L135:L136"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="M139:M144"/>
+    <mergeCell ref="F139:F144"/>
+    <mergeCell ref="L139:L140"/>
+    <mergeCell ref="P161:P162"/>
+    <mergeCell ref="M163:M168"/>
+    <mergeCell ref="F163:F168"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="N149:N150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="M151:M156"/>
+    <mergeCell ref="F151:F156"/>
+    <mergeCell ref="T141:T142"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="R127:R128"/>
+    <mergeCell ref="T127:T128"/>
+    <mergeCell ref="F127:F132"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="G120:L122"/>
+    <mergeCell ref="M121:M126"/>
+    <mergeCell ref="F121:F126"/>
+    <mergeCell ref="R120:R122"/>
+    <mergeCell ref="T120:T122"/>
+    <mergeCell ref="B127:B139"/>
+    <mergeCell ref="C127:C146"/>
+    <mergeCell ref="D127:D137"/>
+    <mergeCell ref="E127:E146"/>
+    <mergeCell ref="M127:M132"/>
+    <mergeCell ref="N127:N128"/>
+    <mergeCell ref="P127:P128"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="N120:N122"/>
+    <mergeCell ref="P120:P122"/>
     <mergeCell ref="R116:R117"/>
     <mergeCell ref="T116:T117"/>
     <mergeCell ref="G98:G99"/>
@@ -6306,69 +6288,106 @@
     <mergeCell ref="F96:F101"/>
     <mergeCell ref="T98:T99"/>
     <mergeCell ref="M84:M89"/>
-    <mergeCell ref="B127:B139"/>
-    <mergeCell ref="C127:C146"/>
-    <mergeCell ref="D127:D137"/>
-    <mergeCell ref="E127:E146"/>
-    <mergeCell ref="M127:M132"/>
-    <mergeCell ref="N127:N128"/>
-    <mergeCell ref="P127:P128"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="N120:N122"/>
-    <mergeCell ref="P120:P122"/>
-    <mergeCell ref="T141:T142"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="R127:R128"/>
-    <mergeCell ref="T127:T128"/>
-    <mergeCell ref="F127:F132"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="G120:L122"/>
-    <mergeCell ref="M121:M126"/>
-    <mergeCell ref="F121:F126"/>
-    <mergeCell ref="R120:R122"/>
-    <mergeCell ref="T120:T122"/>
-    <mergeCell ref="P161:P162"/>
-    <mergeCell ref="M163:M168"/>
-    <mergeCell ref="F163:F168"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="N149:N150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="M151:M156"/>
-    <mergeCell ref="F151:F156"/>
-    <mergeCell ref="R159:R160"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="M133:M138"/>
-    <mergeCell ref="F133:F138"/>
-    <mergeCell ref="L135:L136"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="M139:M144"/>
-    <mergeCell ref="F139:F144"/>
-    <mergeCell ref="L139:L140"/>
-    <mergeCell ref="C147:C166"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="M157:M162"/>
-    <mergeCell ref="F157:F162"/>
-    <mergeCell ref="M108:M113"/>
-    <mergeCell ref="F108:F113"/>
-    <mergeCell ref="M114:M119"/>
-    <mergeCell ref="F114:F119"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="L159:L160"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="M145:M150"/>
-    <mergeCell ref="F145:F150"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="R84:R85"/>
+    <mergeCell ref="T84:T85"/>
+    <mergeCell ref="F84:F89"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="M72:M77"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="F72:F77"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="F60:F65"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M66:M71"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="T66:T67"/>
+    <mergeCell ref="F66:F71"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="T56:T57"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="M48:M53"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="M54:M59"/>
+    <mergeCell ref="M42:M47"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="F42:F47"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="M36:M41"/>
+    <mergeCell ref="F36:F41"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="K28:L31"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="M30:M35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="C6:C25"/>
+    <mergeCell ref="D6:D16"/>
+    <mergeCell ref="E6:E25"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="M6:M11"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="M18:M23"/>
+    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="17" scale="97" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6378,3298 +6397,3617 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFA50FB-58D4-4C34-A468-0A805D67242E}">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111:D112"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="3" width="9.1640625" style="68"/>
-    <col min="4" max="4" width="11" style="68" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" style="68" customWidth="1"/>
-    <col min="6" max="6" width="17" style="68" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="68" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="77" customWidth="1"/>
-    <col min="9" max="11" width="11.5" style="78" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="79" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="212" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="68"/>
+    <col min="5" max="5" width="11" style="68" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="68" customWidth="1"/>
+    <col min="7" max="7" width="17" style="68" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="68" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="77" customWidth="1"/>
+    <col min="10" max="12" width="11.5" style="78" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="211" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="D1" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="E1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="F1" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="G1" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="H1" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="187" t="s">
+      <c r="I1" s="192" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="189"/>
-    </row>
-    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="193" t="s">
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="194"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="206" t="s">
+      <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="C2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="206" t="s">
+      <c r="D2" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="E2" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="F2" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="G2" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="I2" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="J2" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="K2" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="L2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="73"/>
-    </row>
-    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="193"/>
-      <c r="B3" s="206" t="s">
+      <c r="M2" s="73"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="198"/>
+      <c r="B3">
+        <v>65</v>
+      </c>
+      <c r="C3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="206" t="s">
+      <c r="D3" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="206" t="s">
+      <c r="E3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="F3" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="G3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="I3" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="J3" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="K3" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="L3" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="73"/>
-    </row>
-    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="193"/>
-      <c r="B4" s="206" t="s">
+      <c r="M3" s="73"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="198"/>
+      <c r="B4">
+        <v>65</v>
+      </c>
+      <c r="C4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="206" t="s">
+      <c r="D4" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="206" t="s">
+      <c r="E4" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="F4" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="G4" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="I4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="J4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="K4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="L4" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="73"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="193"/>
-      <c r="B5" s="206" t="s">
+      <c r="M4" s="73"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="198"/>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="206" t="s">
+      <c r="D5" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="206" t="s">
+      <c r="E5" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="F5" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="G5" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="I5" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="J5" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="K5" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="L5" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="73"/>
-    </row>
-    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="193"/>
-      <c r="B6" s="206" t="s">
+      <c r="M5" s="73"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="198"/>
+      <c r="B6">
+        <v>65</v>
+      </c>
+      <c r="C6" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="206" t="s">
+      <c r="D6" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="206" t="s">
+      <c r="E6" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="F6" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="G6" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="I6" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="J6" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="K6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="72" t="s">
+      <c r="L6" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="73"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="193"/>
-      <c r="B7" s="206" t="s">
+      <c r="M6" s="73"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="198"/>
+      <c r="B7">
+        <v>65</v>
+      </c>
+      <c r="C7" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="206" t="s">
+      <c r="D7" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="207" t="s">
+      <c r="E7" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="F7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="G7" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="I7" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="72" t="s">
+      <c r="J7" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="K7" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="72" t="s">
+      <c r="L7" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="73"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="193"/>
-      <c r="B8" s="206" t="s">
+      <c r="M7" s="73"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="198"/>
+      <c r="B8">
+        <v>65</v>
+      </c>
+      <c r="C8" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="207" t="s">
+      <c r="D8" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="206" t="s">
+      <c r="E8" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="F8" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="G8" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="I8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="72" t="s">
+      <c r="J8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="K8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="72" t="s">
+      <c r="L8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="73"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
-      <c r="B9" s="208" t="s">
+      <c r="M8" s="73"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="199"/>
+      <c r="B9">
+        <v>65</v>
+      </c>
+      <c r="C9" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="209" t="s">
+      <c r="D9" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="208" t="s">
+      <c r="E9" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="F9" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="G9" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="69"/>
+      <c r="I9" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="J9" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="K9" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="L9" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="76"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="198" t="s">
+      <c r="M9" s="76"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="203" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="210" t="s">
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="210" t="s">
+      <c r="D10" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="210" t="s">
+      <c r="E10" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="F10" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="G10" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="70"/>
+      <c r="I10" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="J10" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="72" t="s">
+      <c r="K10" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="72" t="s">
+      <c r="L10" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="73"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="199"/>
-      <c r="B11" s="206" t="s">
+      <c r="M10" s="73"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="204"/>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="206" t="s">
+      <c r="D11" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="206" t="s">
+      <c r="E11" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="F11" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="G11" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="I11" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="J11" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="K11" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="72" t="s">
+      <c r="L11" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="73"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="199"/>
-      <c r="B12" s="206" t="s">
+      <c r="M11" s="73"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="204"/>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="206" t="s">
+      <c r="D12" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="206" t="s">
+      <c r="E12" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="F12" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="G12" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="I12" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="J12" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="72" t="s">
+      <c r="K12" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="72" t="s">
+      <c r="L12" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="73"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="199"/>
-      <c r="B13" s="206" t="s">
+      <c r="M12" s="73"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="204"/>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="206" t="s">
+      <c r="D13" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="206" t="s">
+      <c r="E13" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="F13" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="G13" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="H13" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="I13" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="J13" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="K13" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="72" t="s">
+      <c r="L13" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="73" t="s">
+      <c r="M13" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="199"/>
-      <c r="B14" s="206" t="s">
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="204"/>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="206" t="s">
+      <c r="D14" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="206" t="s">
+      <c r="E14" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="F14" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="G14" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="71" t="s">
+      <c r="I14" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="J14" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="72" t="s">
+      <c r="K14" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="72" t="s">
+      <c r="L14" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="73"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="199"/>
-      <c r="B15" s="206" t="s">
+      <c r="M14" s="73"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="204"/>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="207" t="s">
+      <c r="D15" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="206" t="s">
+      <c r="E15" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="F15" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="G15" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="I15" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="J15" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="K15" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="L15" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="73"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="199"/>
-      <c r="B16" s="206" t="s">
+      <c r="M15" s="73"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="204"/>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="207" t="s">
+      <c r="D16" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="206" t="s">
+      <c r="E16" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="F16" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="G16" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="71" t="s">
+      <c r="I16" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="J16" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="K16" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="L16" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="73"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="199"/>
-      <c r="B17" s="206" t="s">
+      <c r="M16" s="73"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="204"/>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="207" t="s">
+      <c r="D17" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="206" t="s">
+      <c r="E17" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="68" t="s">
+      <c r="F17" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="G17" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="I17" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="J17" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="72" t="s">
+      <c r="K17" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="72" t="s">
+      <c r="L17" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="73"/>
-    </row>
-    <row r="18" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="200"/>
-      <c r="B18" s="208" t="s">
+      <c r="M17" s="73"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="205"/>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="209" t="s">
+      <c r="D18" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="208" t="s">
+      <c r="E18" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="F18" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="G18" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="74" t="s">
+      <c r="H18" s="69"/>
+      <c r="I18" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="75" t="s">
+      <c r="J18" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="75" t="s">
+      <c r="K18" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="75" t="s">
+      <c r="L18" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="76"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="201" t="s">
+      <c r="M18" s="76"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="206" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="210" t="s">
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="D19" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="210" t="s">
+      <c r="E19" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="F19" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="G19" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="70"/>
-      <c r="H19" s="71" t="s">
+      <c r="H19" s="70"/>
+      <c r="I19" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="72" t="s">
+      <c r="J19" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="K19" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="L19" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="73"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="202"/>
-      <c r="B20" s="206" t="s">
+      <c r="M19" s="73"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="207"/>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="206" t="s">
+      <c r="D20" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="206" t="s">
+      <c r="E20" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="F20" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="G20" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="I20" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="72" t="s">
+      <c r="J20" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="K20" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="72" t="s">
+      <c r="L20" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="73"/>
-    </row>
-    <row r="21" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="202"/>
-      <c r="B21" s="206" t="s">
+      <c r="M20" s="73"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="207"/>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="206" t="s">
+      <c r="D21" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="206" t="s">
+      <c r="E21" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="F21" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="G21" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="71" t="s">
+      <c r="I21" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="72" t="s">
+      <c r="J21" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="72" t="s">
+      <c r="K21" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="L21" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="73"/>
-    </row>
-    <row r="22" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="202"/>
-      <c r="B22" s="206" t="s">
+      <c r="M21" s="73"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="207"/>
+      <c r="B22">
+        <v>210</v>
+      </c>
+      <c r="C22" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="206" t="s">
+      <c r="D22" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="206" t="s">
+      <c r="E22" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="F22" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="G22" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="I22" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="72" t="s">
+      <c r="J22" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="K22" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="72" t="s">
+      <c r="L22" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="73"/>
-    </row>
-    <row r="23" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="202"/>
-      <c r="B23" s="206" t="s">
+      <c r="M22" s="73"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="207"/>
+      <c r="B23">
+        <v>210</v>
+      </c>
+      <c r="C23" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="206" t="s">
+      <c r="D23" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="206" t="s">
+      <c r="E23" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="F23" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="G23" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="I23" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="72" t="s">
+      <c r="J23" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="72" t="s">
+      <c r="K23" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="72" t="s">
+      <c r="L23" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="73"/>
-    </row>
-    <row r="24" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="203"/>
-      <c r="B24" s="208" t="s">
+      <c r="M23" s="73"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="208"/>
+      <c r="B24">
+        <v>210</v>
+      </c>
+      <c r="C24" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="209" t="s">
+      <c r="D24" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="208" t="s">
+      <c r="E24" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="F24" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="G24" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="69"/>
-      <c r="H24" s="74" t="s">
+      <c r="H24" s="69"/>
+      <c r="I24" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="75" t="s">
+      <c r="J24" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="75" t="s">
+      <c r="K24" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="75" t="s">
+      <c r="L24" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="76"/>
-    </row>
-    <row r="25" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="204" t="s">
+      <c r="M24" s="76"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="209" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="206" t="s">
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="207" t="s">
+      <c r="D25" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="206" t="s">
+      <c r="E25" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="F25" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="G25" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="68" t="s">
+      <c r="H25" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="I25" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="72" t="s">
+      <c r="J25" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="72" t="s">
+      <c r="K25" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="72" t="s">
+      <c r="L25" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="73" t="s">
+      <c r="M25" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="205"/>
-      <c r="B26" s="206" t="s">
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="210"/>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="207" t="s">
+      <c r="D26" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="206" t="s">
+      <c r="E26" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="F26" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="G26" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="68" t="s">
+      <c r="H26" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="I26" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="72" t="s">
+      <c r="J26" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="72" t="s">
+      <c r="K26" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="72" t="s">
+      <c r="L26" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="73" t="s">
+      <c r="M26" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="205"/>
-      <c r="B27" s="206" t="s">
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="210"/>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="207" t="s">
+      <c r="D27" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="206" t="s">
+      <c r="E27" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="F27" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="G27" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="H27" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="71" t="s">
+      <c r="I27" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="72" t="s">
+      <c r="J27" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="K27" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K27" s="72" t="s">
+      <c r="L27" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="73" t="s">
+      <c r="M27" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="205"/>
-      <c r="B28" s="206" t="s">
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="210"/>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="207" t="s">
+      <c r="D28" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="206" t="s">
+      <c r="E28" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="F28" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="68" t="s">
+      <c r="G28" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="H28" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="71" t="s">
+      <c r="I28" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="72" t="s">
+      <c r="J28" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="K28" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="72" t="s">
+      <c r="L28" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="73" t="s">
+      <c r="M28" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="205"/>
-      <c r="B29" s="206" t="s">
+    <row r="29" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="210"/>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="207" t="s">
+      <c r="D29" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="206" t="s">
+      <c r="E29" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="F29" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="G29" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="H29" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="71" t="s">
+      <c r="I29" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="72" t="s">
+      <c r="J29" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="72" t="s">
+      <c r="K29" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K29" s="72" t="s">
+      <c r="L29" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="73" t="s">
+      <c r="M29" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="205"/>
-      <c r="B30" s="206" t="s">
+    <row r="30" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="210"/>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="207" t="s">
+      <c r="D30" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="206" t="s">
+      <c r="E30" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="F30" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="G30" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="H30" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="71" t="s">
+      <c r="I30" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="72" t="s">
+      <c r="J30" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="K30" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K30" s="72" t="s">
+      <c r="L30" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L30" s="73" t="s">
+      <c r="M30" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="205"/>
-      <c r="B31" s="206" t="s">
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="210"/>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="207" t="s">
+      <c r="D31" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="206" t="s">
+      <c r="E31" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="F31" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="G31" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="68" t="s">
+      <c r="H31" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="71" t="s">
+      <c r="I31" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="72" t="s">
+      <c r="J31" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="72" t="s">
+      <c r="K31" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="72" t="s">
+      <c r="L31" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L31" s="73" t="s">
+      <c r="M31" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="205"/>
-      <c r="B32" s="206" t="s">
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="210"/>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="207" t="s">
+      <c r="D32" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="206" t="s">
+      <c r="E32" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="F32" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="G32" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="H32" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="71" t="s">
+      <c r="I32" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="72" t="s">
+      <c r="J32" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J32" s="72" t="s">
+      <c r="K32" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="72" t="s">
+      <c r="L32" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L32" s="73" t="s">
+      <c r="M32" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="205"/>
-      <c r="B33" s="206" t="s">
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="210"/>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="207" t="s">
+      <c r="D33" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="206" t="s">
+      <c r="E33" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="68" t="s">
+      <c r="F33" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="G33" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="H33" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="71" t="s">
+      <c r="I33" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="72" t="s">
+      <c r="J33" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="72" t="s">
+      <c r="K33" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="72" t="s">
+      <c r="L33" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L33" s="73" t="s">
+      <c r="M33" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="205"/>
-      <c r="B34" s="206" t="s">
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="210"/>
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="C34" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="207" t="s">
+      <c r="D34" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="206" t="s">
+      <c r="E34" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="68" t="s">
+      <c r="F34" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="68" t="s">
+      <c r="G34" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="68" t="s">
+      <c r="H34" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H34" s="71" t="s">
+      <c r="I34" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="72" t="s">
+      <c r="J34" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J34" s="72" t="s">
+      <c r="K34" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="72" t="s">
+      <c r="L34" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L34" s="73" t="s">
+      <c r="M34" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="205"/>
-      <c r="B35" s="206" t="s">
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="210"/>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="C35" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="207" t="s">
+      <c r="D35" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="206" t="s">
+      <c r="E35" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="F35" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="G35" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="68" t="s">
+      <c r="H35" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H35" s="71" t="s">
+      <c r="I35" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="72" t="s">
+      <c r="J35" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="K35" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="72" t="s">
+      <c r="L35" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="73" t="s">
+      <c r="M35" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="205"/>
-      <c r="B36" s="206" t="s">
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="210"/>
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="C36" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="207" t="s">
+      <c r="D36" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="206" t="s">
+      <c r="E36" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="68" t="s">
+      <c r="F36" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="68" t="s">
+      <c r="G36" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="68" t="s">
+      <c r="H36" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H36" s="71" t="s">
+      <c r="I36" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="72" t="s">
+      <c r="J36" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="72" t="s">
+      <c r="K36" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="72" t="s">
+      <c r="L36" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L36" s="73" t="s">
+      <c r="M36" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="205"/>
-      <c r="B37" s="206" t="s">
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="210"/>
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="207" t="s">
+      <c r="D37" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="206" t="s">
+      <c r="E37" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="68" t="s">
+      <c r="F37" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="68" t="s">
+      <c r="G37" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="68" t="s">
+      <c r="H37" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="I37" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="72" t="s">
+      <c r="J37" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J37" s="72" t="s">
+      <c r="K37" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="72" t="s">
+      <c r="L37" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L37" s="73" t="s">
+      <c r="M37" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="205"/>
-      <c r="B38" s="206" t="s">
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="210"/>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="207" t="s">
+      <c r="D38" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="206" t="s">
+      <c r="E38" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="F38" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="68" t="s">
+      <c r="G38" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="68" t="s">
+      <c r="H38" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H38" s="71" t="s">
+      <c r="I38" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="72" t="s">
+      <c r="J38" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="72" t="s">
+      <c r="K38" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="72" t="s">
+      <c r="L38" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="73" t="s">
+      <c r="M38" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="205"/>
-      <c r="B39" s="206" t="s">
+    <row r="39" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="210"/>
+      <c r="B39">
+        <v>50</v>
+      </c>
+      <c r="C39" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="207" t="s">
+      <c r="D39" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="206" t="s">
+      <c r="E39" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="68" t="s">
+      <c r="F39" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="G39" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="68" t="s">
+      <c r="H39" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="71" t="s">
+      <c r="I39" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="72" t="s">
+      <c r="J39" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J39" s="72" t="s">
+      <c r="K39" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K39" s="72" t="s">
+      <c r="L39" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L39" s="73" t="s">
+      <c r="M39" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="205"/>
-      <c r="B40" s="206" t="s">
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="210"/>
+      <c r="B40">
+        <v>50</v>
+      </c>
+      <c r="C40" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="207" t="s">
+      <c r="D40" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="206" t="s">
+      <c r="E40" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="68" t="s">
+      <c r="F40" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="68" t="s">
+      <c r="G40" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="68" t="s">
+      <c r="H40" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H40" s="71" t="s">
+      <c r="I40" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="72" t="s">
+      <c r="J40" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J40" s="72" t="s">
+      <c r="K40" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="72" t="s">
+      <c r="L40" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L40" s="73" t="s">
+      <c r="M40" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="205"/>
-      <c r="B41" s="206" t="s">
+    <row r="41" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="210"/>
+      <c r="B41">
+        <v>50</v>
+      </c>
+      <c r="C41" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="207" t="s">
+      <c r="D41" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="206" t="s">
+      <c r="E41" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="68" t="s">
+      <c r="F41" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="G41" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="68" t="s">
+      <c r="H41" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="71" t="s">
+      <c r="I41" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I41" s="72" t="s">
+      <c r="J41" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J41" s="72" t="s">
+      <c r="K41" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K41" s="72" t="s">
+      <c r="L41" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="73" t="s">
+      <c r="M41" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="205"/>
-      <c r="B42" s="206" t="s">
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="210"/>
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="207" t="s">
+      <c r="D42" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="206" t="s">
+      <c r="E42" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="68" t="s">
+      <c r="F42" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="68" t="s">
+      <c r="G42" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="68" t="s">
+      <c r="H42" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H42" s="71" t="s">
+      <c r="I42" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="72" t="s">
+      <c r="J42" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J42" s="72" t="s">
+      <c r="K42" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K42" s="72" t="s">
+      <c r="L42" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L42" s="73" t="s">
+      <c r="M42" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="205"/>
-      <c r="B43" s="206" t="s">
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="210"/>
+      <c r="B43">
+        <v>50</v>
+      </c>
+      <c r="C43" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="207" t="s">
+      <c r="D43" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="206" t="s">
+      <c r="E43" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="68" t="s">
+      <c r="F43" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="68" t="s">
+      <c r="G43" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="68" t="s">
+      <c r="H43" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H43" s="71" t="s">
+      <c r="I43" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I43" s="72" t="s">
+      <c r="J43" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J43" s="72" t="s">
+      <c r="K43" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K43" s="72" t="s">
+      <c r="L43" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L43" s="73" t="s">
+      <c r="M43" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="205"/>
-      <c r="B44" s="206" t="s">
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="210"/>
+      <c r="B44">
+        <v>50</v>
+      </c>
+      <c r="C44" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="207" t="s">
+      <c r="D44" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="206" t="s">
+      <c r="E44" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="68" t="s">
+      <c r="F44" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="68" t="s">
+      <c r="G44" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="68" t="s">
+      <c r="H44" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H44" s="74" t="s">
+      <c r="I44" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="I44" s="75" t="s">
+      <c r="J44" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="J44" s="75" t="s">
+      <c r="K44" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="K44" s="75" t="s">
+      <c r="L44" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="L44" s="76" t="s">
+      <c r="M44" s="76" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="195" t="s">
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="200" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="210" t="s">
+      <c r="B45">
+        <v>120</v>
+      </c>
+      <c r="C45" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="210" t="s">
+      <c r="D45" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="210" t="s">
+      <c r="E45" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="F45" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="70" t="s">
+      <c r="G45" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="70" t="s">
+      <c r="H45" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="H45" s="71" t="s">
+      <c r="I45" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I45" s="72" t="s">
+      <c r="J45" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J45" s="72"/>
       <c r="K45" s="72"/>
-      <c r="L45" s="73"/>
-    </row>
-    <row r="46" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="196"/>
-      <c r="B46" s="206" t="s">
+      <c r="L45" s="72"/>
+      <c r="M45" s="73"/>
+    </row>
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="201"/>
+      <c r="B46">
+        <v>120</v>
+      </c>
+      <c r="C46" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="206" t="s">
+      <c r="D46" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="206" t="s">
+      <c r="E46" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="68" t="s">
+      <c r="F46" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="68" t="s">
+      <c r="G46" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="68" t="s">
+      <c r="H46" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="H46" s="71" t="s">
+      <c r="I46" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I46" s="72" t="s">
+      <c r="J46" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J46" s="72"/>
       <c r="K46" s="72"/>
-      <c r="L46" s="73"/>
-    </row>
-    <row r="47" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="196"/>
-      <c r="B47" s="206" t="s">
+      <c r="L46" s="72"/>
+      <c r="M46" s="73"/>
+    </row>
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="201"/>
+      <c r="B47">
+        <v>120</v>
+      </c>
+      <c r="C47" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="206" t="s">
+      <c r="D47" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="206" t="s">
+      <c r="E47" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="68" t="s">
+      <c r="F47" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="68" t="s">
+      <c r="G47" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="68" t="s">
+      <c r="H47" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="H47" s="71" t="s">
+      <c r="I47" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I47" s="72" t="s">
+      <c r="J47" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J47" s="72"/>
       <c r="K47" s="72"/>
-      <c r="L47" s="73"/>
-    </row>
-    <row r="48" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="197"/>
-      <c r="B48" s="208" t="s">
+      <c r="L47" s="72"/>
+      <c r="M47" s="73"/>
+    </row>
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="202"/>
+      <c r="B48">
+        <v>120</v>
+      </c>
+      <c r="C48" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="208" t="s">
+      <c r="D48" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="208" t="s">
+      <c r="E48" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="69" t="s">
+      <c r="F48" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="69" t="s">
+      <c r="G48" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="G48" s="69" t="s">
+      <c r="H48" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="H48" s="74" t="s">
+      <c r="I48" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="I48" s="75" t="s">
+      <c r="J48" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="J48" s="75"/>
       <c r="K48" s="75"/>
-      <c r="L48" s="76"/>
-    </row>
-    <row r="49" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="196" t="s">
+      <c r="L48" s="75"/>
+      <c r="M48" s="76"/>
+    </row>
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="201" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="206" t="s">
+      <c r="B49">
+        <v>180</v>
+      </c>
+      <c r="C49" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="206" t="s">
+      <c r="D49" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="206" t="s">
+      <c r="E49" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="68" t="s">
+      <c r="F49" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F49" s="68" t="s">
+      <c r="G49" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G49" s="68" t="s">
+      <c r="H49" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="H49" s="71" t="s">
+      <c r="I49" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I49" s="72" t="s">
+      <c r="J49" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="72"/>
       <c r="K49" s="72"/>
-      <c r="L49" s="73"/>
-    </row>
-    <row r="50" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="196"/>
-      <c r="B50" s="206" t="s">
+      <c r="L49" s="72"/>
+      <c r="M49" s="73"/>
+    </row>
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="201"/>
+      <c r="B50">
+        <v>180</v>
+      </c>
+      <c r="C50" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="206" t="s">
+      <c r="D50" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="D50" s="206" t="s">
+      <c r="E50" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="68" t="s">
+      <c r="F50" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="68" t="s">
+      <c r="G50" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G50" s="68" t="s">
+      <c r="H50" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="H50" s="71" t="s">
+      <c r="I50" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="72" t="s">
+      <c r="J50" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J50" s="72"/>
       <c r="K50" s="72"/>
-      <c r="L50" s="73"/>
-    </row>
-    <row r="51" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="196"/>
-      <c r="B51" s="206" t="s">
+      <c r="L50" s="72"/>
+      <c r="M50" s="73"/>
+    </row>
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="201"/>
+      <c r="B51">
+        <v>180</v>
+      </c>
+      <c r="C51" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="206" t="s">
+      <c r="D51" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="206" t="s">
+      <c r="E51" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="68" t="s">
+      <c r="F51" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="68" t="s">
+      <c r="G51" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="68" t="s">
+      <c r="H51" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="H51" s="71" t="s">
+      <c r="I51" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I51" s="72" t="s">
+      <c r="J51" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J51" s="72"/>
       <c r="K51" s="72"/>
-      <c r="L51" s="73"/>
-    </row>
-    <row r="52" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="196"/>
-      <c r="B52" s="206" t="s">
+      <c r="L51" s="72"/>
+      <c r="M51" s="73"/>
+    </row>
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="201"/>
+      <c r="B52">
+        <v>180</v>
+      </c>
+      <c r="C52" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="206" t="s">
+      <c r="D52" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="206" t="s">
+      <c r="E52" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="68" t="s">
+      <c r="F52" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="68" t="s">
+      <c r="G52" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G52" s="68" t="s">
+      <c r="H52" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="H52" s="71" t="s">
+      <c r="I52" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I52" s="72" t="s">
+      <c r="J52" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J52" s="72"/>
       <c r="K52" s="72"/>
-      <c r="L52" s="73"/>
-    </row>
-    <row r="53" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="196"/>
-      <c r="B53" s="206" t="s">
+      <c r="L52" s="72"/>
+      <c r="M52" s="73"/>
+    </row>
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="201"/>
+      <c r="B53">
+        <v>180</v>
+      </c>
+      <c r="C53" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="206" t="s">
+      <c r="D53" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="206" t="s">
+      <c r="E53" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="68" t="s">
+      <c r="F53" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F53" s="68" t="s">
+      <c r="G53" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="68" t="s">
+      <c r="H53" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="71" t="s">
+      <c r="I53" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I53" s="72" t="s">
+      <c r="J53" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J53" s="72"/>
       <c r="K53" s="72"/>
-      <c r="L53" s="73"/>
-    </row>
-    <row r="54" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="196"/>
-      <c r="B54" s="206" t="s">
+      <c r="L53" s="72"/>
+      <c r="M53" s="73"/>
+    </row>
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="201"/>
+      <c r="B54">
+        <v>180</v>
+      </c>
+      <c r="C54" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="206" t="s">
+      <c r="D54" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="206" t="s">
+      <c r="E54" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="68" t="s">
+      <c r="F54" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F54" s="68" t="s">
+      <c r="G54" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G54" s="68" t="s">
+      <c r="H54" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="H54" s="74" t="s">
+      <c r="I54" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="I54" s="75" t="s">
+      <c r="J54" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="J54" s="75"/>
       <c r="K54" s="75"/>
-      <c r="L54" s="76"/>
-    </row>
-    <row r="55" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="192" t="s">
+      <c r="L54" s="75"/>
+      <c r="M54" s="76"/>
+    </row>
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="210" t="s">
+      <c r="B55">
+        <v>170</v>
+      </c>
+      <c r="C55" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="210" t="s">
+      <c r="D55" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="210" t="s">
+      <c r="E55" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="E55" s="70" t="s">
+      <c r="F55" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70" t="s">
+      <c r="G55" s="70"/>
+      <c r="H55" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="H55" s="71" t="s">
+      <c r="I55" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I55" s="72"/>
       <c r="J55" s="72"/>
       <c r="K55" s="72"/>
-      <c r="L55" s="73"/>
-    </row>
-    <row r="56" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="190"/>
-      <c r="B56" s="206" t="s">
+      <c r="L55" s="72"/>
+      <c r="M55" s="73"/>
+    </row>
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="195"/>
+      <c r="B56">
+        <v>170</v>
+      </c>
+      <c r="C56" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="206" t="s">
+      <c r="D56" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="206" t="s">
+      <c r="E56" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="68" t="s">
+      <c r="F56" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="68" t="s">
+      <c r="H56" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H56" s="71" t="s">
+      <c r="I56" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I56" s="72"/>
       <c r="J56" s="72"/>
       <c r="K56" s="72"/>
-      <c r="L56" s="73"/>
-    </row>
-    <row r="57" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="190"/>
-      <c r="B57" s="206" t="s">
+      <c r="L56" s="72"/>
+      <c r="M56" s="73"/>
+    </row>
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="195"/>
+      <c r="B57">
+        <v>170</v>
+      </c>
+      <c r="C57" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="206" t="s">
+      <c r="D57" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="206" t="s">
+      <c r="E57" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E57" s="68" t="s">
+      <c r="F57" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G57" s="68" t="s">
+      <c r="H57" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H57" s="71" t="s">
+      <c r="I57" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I57" s="72"/>
       <c r="J57" s="72"/>
       <c r="K57" s="72"/>
-      <c r="L57" s="73"/>
-    </row>
-    <row r="58" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="190"/>
-      <c r="B58" s="206" t="s">
+      <c r="L57" s="72"/>
+      <c r="M57" s="73"/>
+    </row>
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="195"/>
+      <c r="B58">
+        <v>170</v>
+      </c>
+      <c r="C58" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="206" t="s">
+      <c r="D58" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="206" t="s">
+      <c r="E58" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="68" t="s">
+      <c r="F58" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G58" s="68" t="s">
+      <c r="H58" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H58" s="71" t="s">
+      <c r="I58" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I58" s="72"/>
       <c r="J58" s="72"/>
       <c r="K58" s="72"/>
-      <c r="L58" s="73"/>
-    </row>
-    <row r="59" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="190"/>
-      <c r="B59" s="206" t="s">
+      <c r="L58" s="72"/>
+      <c r="M58" s="73"/>
+    </row>
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="195"/>
+      <c r="B59">
+        <v>170</v>
+      </c>
+      <c r="C59" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="206" t="s">
+      <c r="D59" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="206" t="s">
+      <c r="E59" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="E59" s="68" t="s">
+      <c r="F59" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G59" s="68" t="s">
+      <c r="H59" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H59" s="71" t="s">
+      <c r="I59" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I59" s="72"/>
       <c r="J59" s="72"/>
       <c r="K59" s="72"/>
-      <c r="L59" s="73"/>
-    </row>
-    <row r="60" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="190"/>
-      <c r="B60" s="206" t="s">
+      <c r="L59" s="72"/>
+      <c r="M59" s="73"/>
+    </row>
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="195"/>
+      <c r="B60">
+        <v>170</v>
+      </c>
+      <c r="C60" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="206" t="s">
+      <c r="D60" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="206" t="s">
+      <c r="E60" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="E60" s="68" t="s">
+      <c r="F60" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G60" s="68" t="s">
+      <c r="H60" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H60" s="71" t="s">
+      <c r="I60" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I60" s="72"/>
       <c r="J60" s="72"/>
       <c r="K60" s="72"/>
-      <c r="L60" s="73"/>
-    </row>
-    <row r="61" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="190"/>
-      <c r="B61" s="206" t="s">
+      <c r="L60" s="72"/>
+      <c r="M60" s="73"/>
+    </row>
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="195"/>
+      <c r="B61">
+        <v>170</v>
+      </c>
+      <c r="C61" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="206" t="s">
+      <c r="D61" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="206" t="s">
+      <c r="E61" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E61" s="68" t="s">
+      <c r="F61" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G61" s="68" t="s">
+      <c r="H61" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H61" s="71" t="s">
+      <c r="I61" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I61" s="72"/>
       <c r="J61" s="72"/>
       <c r="K61" s="72"/>
-      <c r="L61" s="73"/>
-    </row>
-    <row r="62" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="190"/>
-      <c r="B62" s="206" t="s">
+      <c r="L61" s="72"/>
+      <c r="M61" s="73"/>
+    </row>
+    <row r="62" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="195"/>
+      <c r="B62">
+        <v>170</v>
+      </c>
+      <c r="C62" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="206" t="s">
+      <c r="D62" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="206" t="s">
+      <c r="E62" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="68" t="s">
+      <c r="F62" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="68" t="s">
+      <c r="H62" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H62" s="71" t="s">
+      <c r="I62" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I62" s="72"/>
       <c r="J62" s="72"/>
       <c r="K62" s="72"/>
-      <c r="L62" s="73"/>
-    </row>
-    <row r="63" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="190"/>
-      <c r="B63" s="206" t="s">
+      <c r="L62" s="72"/>
+      <c r="M62" s="73"/>
+    </row>
+    <row r="63" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="195"/>
+      <c r="B63">
+        <v>170</v>
+      </c>
+      <c r="C63" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="206" t="s">
+      <c r="D63" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D63" s="206" t="s">
+      <c r="E63" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="E63" s="68" t="s">
+      <c r="F63" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G63" s="68" t="s">
+      <c r="H63" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H63" s="71" t="s">
+      <c r="I63" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I63" s="72"/>
       <c r="J63" s="72"/>
       <c r="K63" s="72"/>
-      <c r="L63" s="73"/>
-    </row>
-    <row r="64" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="190"/>
-      <c r="B64" s="206" t="s">
+      <c r="L63" s="72"/>
+      <c r="M63" s="73"/>
+    </row>
+    <row r="64" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="195"/>
+      <c r="B64">
+        <v>170</v>
+      </c>
+      <c r="C64" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="206" t="s">
+      <c r="D64" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D64" s="206" t="s">
+      <c r="E64" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="E64" s="68" t="s">
+      <c r="F64" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G64" s="68" t="s">
+      <c r="H64" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H64" s="71" t="s">
+      <c r="I64" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I64" s="72"/>
       <c r="J64" s="72"/>
       <c r="K64" s="72"/>
-      <c r="L64" s="73"/>
-    </row>
-    <row r="65" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="190"/>
-      <c r="B65" s="206" t="s">
+      <c r="L64" s="72"/>
+      <c r="M64" s="73"/>
+    </row>
+    <row r="65" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="195"/>
+      <c r="B65">
+        <v>170</v>
+      </c>
+      <c r="C65" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="206" t="s">
+      <c r="D65" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="206" t="s">
+      <c r="E65" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="68" t="s">
+      <c r="F65" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G65" s="68" t="s">
+      <c r="H65" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H65" s="71" t="s">
+      <c r="I65" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I65" s="72"/>
       <c r="J65" s="72"/>
       <c r="K65" s="72"/>
-      <c r="L65" s="73"/>
-    </row>
-    <row r="66" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="190"/>
-      <c r="B66" s="206" t="s">
+      <c r="L65" s="72"/>
+      <c r="M65" s="73"/>
+    </row>
+    <row r="66" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="195"/>
+      <c r="B66">
+        <v>170</v>
+      </c>
+      <c r="C66" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="206" t="s">
+      <c r="D66" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="206" t="s">
+      <c r="E66" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="68" t="s">
+      <c r="F66" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G66" s="68" t="s">
+      <c r="H66" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H66" s="71" t="s">
+      <c r="I66" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I66" s="72"/>
       <c r="J66" s="72"/>
       <c r="K66" s="72"/>
-      <c r="L66" s="73"/>
-    </row>
-    <row r="67" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="190"/>
-      <c r="B67" s="206" t="s">
+      <c r="L66" s="72"/>
+      <c r="M66" s="73"/>
+    </row>
+    <row r="67" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="195"/>
+      <c r="B67">
+        <v>170</v>
+      </c>
+      <c r="C67" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="206" t="s">
+      <c r="D67" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="206" t="s">
+      <c r="E67" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="68" t="s">
+      <c r="F67" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G67" s="68" t="s">
+      <c r="H67" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H67" s="71" t="s">
+      <c r="I67" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I67" s="72"/>
       <c r="J67" s="72"/>
       <c r="K67" s="72"/>
-      <c r="L67" s="73"/>
-    </row>
-    <row r="68" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="190"/>
-      <c r="B68" s="206" t="s">
+      <c r="L67" s="72"/>
+      <c r="M67" s="73"/>
+    </row>
+    <row r="68" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="195"/>
+      <c r="B68">
+        <v>170</v>
+      </c>
+      <c r="C68" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="206" t="s">
+      <c r="D68" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="206" t="s">
+      <c r="E68" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="E68" s="68" t="s">
+      <c r="F68" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="68" t="s">
+      <c r="H68" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H68" s="71" t="s">
+      <c r="I68" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I68" s="72"/>
       <c r="J68" s="72"/>
       <c r="K68" s="72"/>
-      <c r="L68" s="73"/>
-    </row>
-    <row r="69" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="190"/>
-      <c r="B69" s="206" t="s">
+      <c r="L68" s="72"/>
+      <c r="M68" s="73"/>
+    </row>
+    <row r="69" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="195"/>
+      <c r="B69">
+        <v>170</v>
+      </c>
+      <c r="C69" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="206" t="s">
+      <c r="D69" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="206" t="s">
+      <c r="E69" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E69" s="68" t="s">
+      <c r="F69" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G69" s="68" t="s">
+      <c r="H69" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H69" s="71" t="s">
+      <c r="I69" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I69" s="72"/>
       <c r="J69" s="72"/>
       <c r="K69" s="72"/>
-      <c r="L69" s="73"/>
-    </row>
-    <row r="70" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="190"/>
-      <c r="B70" s="206" t="s">
+      <c r="L69" s="72"/>
+      <c r="M69" s="73"/>
+    </row>
+    <row r="70" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="195"/>
+      <c r="B70">
+        <v>170</v>
+      </c>
+      <c r="C70" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="206" t="s">
+      <c r="D70" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="206" t="s">
+      <c r="E70" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E70" s="68" t="s">
+      <c r="F70" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G70" s="68" t="s">
+      <c r="H70" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H70" s="71" t="s">
+      <c r="I70" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I70" s="72"/>
       <c r="J70" s="72"/>
       <c r="K70" s="72"/>
-      <c r="L70" s="73"/>
-    </row>
-    <row r="71" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="190"/>
-      <c r="B71" s="206" t="s">
+      <c r="L70" s="72"/>
+      <c r="M70" s="73"/>
+    </row>
+    <row r="71" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="195"/>
+      <c r="B71">
+        <v>170</v>
+      </c>
+      <c r="C71" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="206" t="s">
+      <c r="D71" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="206" t="s">
+      <c r="E71" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="E71" s="68" t="s">
+      <c r="F71" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G71" s="68" t="s">
+      <c r="H71" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H71" s="71" t="s">
+      <c r="I71" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I71" s="72"/>
       <c r="J71" s="72"/>
       <c r="K71" s="72"/>
-      <c r="L71" s="73"/>
-    </row>
-    <row r="72" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="190"/>
-      <c r="B72" s="206" t="s">
+      <c r="L71" s="72"/>
+      <c r="M71" s="73"/>
+    </row>
+    <row r="72" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="195"/>
+      <c r="B72">
+        <v>170</v>
+      </c>
+      <c r="C72" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="206" t="s">
+      <c r="D72" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D72" s="206" t="s">
+      <c r="E72" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="E72" s="68" t="s">
+      <c r="F72" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G72" s="68" t="s">
+      <c r="H72" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H72" s="71" t="s">
+      <c r="I72" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I72" s="72"/>
       <c r="J72" s="72"/>
       <c r="K72" s="72"/>
-      <c r="L72" s="73"/>
-    </row>
-    <row r="73" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="191"/>
-      <c r="B73" s="208" t="s">
+      <c r="L72" s="72"/>
+      <c r="M72" s="73"/>
+    </row>
+    <row r="73" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="196"/>
+      <c r="B73">
+        <v>170</v>
+      </c>
+      <c r="C73" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="208" t="s">
+      <c r="D73" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="208" t="s">
+      <c r="E73" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="E73" s="69" t="s">
+      <c r="F73" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69" t="s">
+      <c r="G73" s="69"/>
+      <c r="H73" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="H73" s="74" t="s">
+      <c r="I73" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="I73" s="75"/>
       <c r="J73" s="75"/>
       <c r="K73" s="75"/>
-      <c r="L73" s="76"/>
-    </row>
-    <row r="74" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="192" t="s">
+      <c r="L73" s="75"/>
+      <c r="M73" s="76"/>
+    </row>
+    <row r="74" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="197" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="210" t="s">
+      <c r="B74">
+        <v>80</v>
+      </c>
+      <c r="C74" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="210" t="s">
+      <c r="D74" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="210" t="s">
+      <c r="E74" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="E74" s="70" t="s">
+      <c r="F74" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70" t="s">
+      <c r="G74" s="70"/>
+      <c r="H74" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="H74" s="71" t="s">
+      <c r="I74" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I74" s="72"/>
       <c r="J74" s="72"/>
       <c r="K74" s="72"/>
-      <c r="L74" s="73"/>
-    </row>
-    <row r="75" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="190"/>
-      <c r="B75" s="206" t="s">
+      <c r="L74" s="72"/>
+      <c r="M74" s="73"/>
+    </row>
+    <row r="75" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="195"/>
+      <c r="B75">
+        <v>80</v>
+      </c>
+      <c r="C75" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="206" t="s">
+      <c r="D75" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="206" t="s">
+      <c r="E75" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="68" t="s">
+      <c r="F75" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G75" s="68" t="s">
+      <c r="H75" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H75" s="71" t="s">
+      <c r="I75" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I75" s="72"/>
       <c r="J75" s="72"/>
       <c r="K75" s="72"/>
-      <c r="L75" s="73"/>
-    </row>
-    <row r="76" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="190"/>
-      <c r="B76" s="206" t="s">
+      <c r="L75" s="72"/>
+      <c r="M75" s="73"/>
+    </row>
+    <row r="76" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="195"/>
+      <c r="B76">
+        <v>80</v>
+      </c>
+      <c r="C76" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="206" t="s">
+      <c r="D76" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D76" s="206" t="s">
+      <c r="E76" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="E76" s="68" t="s">
+      <c r="F76" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G76" s="68" t="s">
+      <c r="H76" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H76" s="71" t="s">
+      <c r="I76" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I76" s="72"/>
       <c r="J76" s="72"/>
       <c r="K76" s="72"/>
-      <c r="L76" s="73"/>
-    </row>
-    <row r="77" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="190"/>
-      <c r="B77" s="206" t="s">
+      <c r="L76" s="72"/>
+      <c r="M76" s="73"/>
+    </row>
+    <row r="77" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="195"/>
+      <c r="B77">
+        <v>80</v>
+      </c>
+      <c r="C77" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="206" t="s">
+      <c r="D77" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="206" t="s">
+      <c r="E77" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="E77" s="68" t="s">
+      <c r="F77" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G77" s="68" t="s">
+      <c r="H77" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H77" s="71" t="s">
+      <c r="I77" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I77" s="72"/>
       <c r="J77" s="72"/>
       <c r="K77" s="72"/>
-      <c r="L77" s="73"/>
-    </row>
-    <row r="78" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="190"/>
-      <c r="B78" s="206" t="s">
+      <c r="L77" s="72"/>
+      <c r="M77" s="73"/>
+    </row>
+    <row r="78" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="195"/>
+      <c r="B78">
+        <v>80</v>
+      </c>
+      <c r="C78" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="206" t="s">
+      <c r="D78" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="206" t="s">
+      <c r="E78" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E78" s="68" t="s">
+      <c r="F78" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G78" s="68" t="s">
+      <c r="H78" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H78" s="71" t="s">
+      <c r="I78" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I78" s="72"/>
       <c r="J78" s="72"/>
       <c r="K78" s="72"/>
-      <c r="L78" s="73"/>
-    </row>
-    <row r="79" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="190"/>
-      <c r="B79" s="206" t="s">
+      <c r="L78" s="72"/>
+      <c r="M78" s="73"/>
+    </row>
+    <row r="79" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="195"/>
+      <c r="B79">
+        <v>80</v>
+      </c>
+      <c r="C79" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C79" s="206" t="s">
+      <c r="D79" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D79" s="206" t="s">
+      <c r="E79" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E79" s="68" t="s">
+      <c r="F79" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G79" s="68" t="s">
+      <c r="H79" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H79" s="71" t="s">
+      <c r="I79" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I79" s="72"/>
       <c r="J79" s="72"/>
       <c r="K79" s="72"/>
-      <c r="L79" s="73"/>
-    </row>
-    <row r="80" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="190"/>
-      <c r="B80" s="206" t="s">
+      <c r="L79" s="72"/>
+      <c r="M79" s="73"/>
+    </row>
+    <row r="80" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="195"/>
+      <c r="B80">
+        <v>80</v>
+      </c>
+      <c r="C80" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="206" t="s">
+      <c r="D80" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D80" s="206" t="s">
+      <c r="E80" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="E80" s="68" t="s">
+      <c r="F80" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G80" s="68" t="s">
+      <c r="H80" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H80" s="71" t="s">
+      <c r="I80" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I80" s="72"/>
       <c r="J80" s="72"/>
       <c r="K80" s="72"/>
-      <c r="L80" s="73"/>
-    </row>
-    <row r="81" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="190"/>
-      <c r="B81" s="206" t="s">
+      <c r="L80" s="72"/>
+      <c r="M80" s="73"/>
+    </row>
+    <row r="81" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="195"/>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="206" t="s">
+      <c r="D81" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D81" s="206" t="s">
+      <c r="E81" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="E81" s="68" t="s">
+      <c r="F81" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G81" s="68" t="s">
+      <c r="H81" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H81" s="71" t="s">
+      <c r="I81" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I81" s="72"/>
       <c r="J81" s="72"/>
       <c r="K81" s="72"/>
-      <c r="L81" s="73"/>
-    </row>
-    <row r="82" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="190"/>
-      <c r="B82" s="206" t="s">
+      <c r="L81" s="72"/>
+      <c r="M81" s="73"/>
+    </row>
+    <row r="82" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="195"/>
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C82" s="206" t="s">
+      <c r="D82" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="206" t="s">
+      <c r="E82" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="E82" s="68" t="s">
+      <c r="F82" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G82" s="68" t="s">
+      <c r="H82" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H82" s="71" t="s">
+      <c r="I82" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I82" s="72"/>
       <c r="J82" s="72"/>
       <c r="K82" s="72"/>
-      <c r="L82" s="73"/>
-    </row>
-    <row r="83" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="190"/>
-      <c r="B83" s="206" t="s">
+      <c r="L82" s="72"/>
+      <c r="M82" s="73"/>
+    </row>
+    <row r="83" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="195"/>
+      <c r="B83">
+        <v>80</v>
+      </c>
+      <c r="C83" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C83" s="206" t="s">
+      <c r="D83" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="206" t="s">
+      <c r="E83" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="E83" s="68" t="s">
+      <c r="F83" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G83" s="68" t="s">
+      <c r="H83" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H83" s="71" t="s">
+      <c r="I83" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I83" s="72"/>
       <c r="J83" s="72"/>
       <c r="K83" s="72"/>
-      <c r="L83" s="73"/>
-    </row>
-    <row r="84" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="190"/>
-      <c r="B84" s="206" t="s">
+      <c r="L83" s="72"/>
+      <c r="M83" s="73"/>
+    </row>
+    <row r="84" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="195"/>
+      <c r="B84">
+        <v>80</v>
+      </c>
+      <c r="C84" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C84" s="206" t="s">
+      <c r="D84" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D84" s="206" t="s">
+      <c r="E84" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E84" s="68" t="s">
+      <c r="F84" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G84" s="68" t="s">
+      <c r="H84" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H84" s="71" t="s">
+      <c r="I84" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I84" s="72"/>
       <c r="J84" s="72"/>
       <c r="K84" s="72"/>
-      <c r="L84" s="73"/>
-    </row>
-    <row r="85" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="190"/>
-      <c r="B85" s="206" t="s">
+      <c r="L84" s="72"/>
+      <c r="M84" s="73"/>
+    </row>
+    <row r="85" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="195"/>
+      <c r="B85">
+        <v>80</v>
+      </c>
+      <c r="C85" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C85" s="206" t="s">
+      <c r="D85" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D85" s="206" t="s">
+      <c r="E85" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E85" s="68" t="s">
+      <c r="F85" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G85" s="68" t="s">
+      <c r="H85" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H85" s="71" t="s">
+      <c r="I85" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I85" s="72"/>
       <c r="J85" s="72"/>
       <c r="K85" s="72"/>
-      <c r="L85" s="73"/>
-    </row>
-    <row r="86" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="190"/>
-      <c r="B86" s="206" t="s">
+      <c r="L85" s="72"/>
+      <c r="M85" s="73"/>
+    </row>
+    <row r="86" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="195"/>
+      <c r="B86">
+        <v>80</v>
+      </c>
+      <c r="C86" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C86" s="206" t="s">
+      <c r="D86" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D86" s="206" t="s">
+      <c r="E86" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="E86" s="68" t="s">
+      <c r="F86" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="68" t="s">
+      <c r="H86" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H86" s="71" t="s">
+      <c r="I86" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I86" s="72"/>
       <c r="J86" s="72"/>
       <c r="K86" s="72"/>
-      <c r="L86" s="73"/>
-    </row>
-    <row r="87" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="190"/>
-      <c r="B87" s="206" t="s">
+      <c r="L86" s="72"/>
+      <c r="M86" s="73"/>
+    </row>
+    <row r="87" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="195"/>
+      <c r="B87">
+        <v>80</v>
+      </c>
+      <c r="C87" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C87" s="206" t="s">
+      <c r="D87" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D87" s="206" t="s">
+      <c r="E87" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="E87" s="68" t="s">
+      <c r="F87" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G87" s="68" t="s">
+      <c r="H87" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H87" s="71" t="s">
+      <c r="I87" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I87" s="72"/>
       <c r="J87" s="72"/>
       <c r="K87" s="72"/>
-      <c r="L87" s="73"/>
-    </row>
-    <row r="88" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="190"/>
-      <c r="B88" s="206" t="s">
+      <c r="L87" s="72"/>
+      <c r="M87" s="73"/>
+    </row>
+    <row r="88" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="195"/>
+      <c r="B88">
+        <v>80</v>
+      </c>
+      <c r="C88" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C88" s="206" t="s">
+      <c r="D88" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D88" s="206" t="s">
+      <c r="E88" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="E88" s="68" t="s">
+      <c r="F88" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G88" s="68" t="s">
+      <c r="H88" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H88" s="71" t="s">
+      <c r="I88" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I88" s="72"/>
       <c r="J88" s="72"/>
       <c r="K88" s="72"/>
-      <c r="L88" s="73"/>
-    </row>
-    <row r="89" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="190"/>
-      <c r="B89" s="206" t="s">
+      <c r="L88" s="72"/>
+      <c r="M88" s="73"/>
+    </row>
+    <row r="89" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="195"/>
+      <c r="B89">
+        <v>80</v>
+      </c>
+      <c r="C89" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="206" t="s">
+      <c r="D89" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="D89" s="206" t="s">
+      <c r="E89" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="68" t="s">
+      <c r="F89" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G89" s="68" t="s">
+      <c r="H89" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H89" s="71" t="s">
+      <c r="I89" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I89" s="72"/>
       <c r="J89" s="72"/>
       <c r="K89" s="72"/>
-      <c r="L89" s="73"/>
-    </row>
-    <row r="90" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="190"/>
-      <c r="B90" s="206" t="s">
+      <c r="L89" s="72"/>
+      <c r="M89" s="73"/>
+    </row>
+    <row r="90" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="195"/>
+      <c r="B90">
+        <v>80</v>
+      </c>
+      <c r="C90" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C90" s="206" t="s">
+      <c r="D90" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="206" t="s">
+      <c r="E90" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E90" s="68" t="s">
+      <c r="F90" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G90" s="68" t="s">
+      <c r="H90" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H90" s="71" t="s">
+      <c r="I90" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I90" s="72"/>
       <c r="J90" s="72"/>
       <c r="K90" s="72"/>
-      <c r="L90" s="73"/>
-    </row>
-    <row r="91" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="190"/>
-      <c r="B91" s="206" t="s">
+      <c r="L90" s="72"/>
+      <c r="M90" s="73"/>
+    </row>
+    <row r="91" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="195"/>
+      <c r="B91">
+        <v>80</v>
+      </c>
+      <c r="C91" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C91" s="206" t="s">
+      <c r="D91" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="206" t="s">
+      <c r="E91" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E91" s="68" t="s">
+      <c r="F91" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G91" s="68" t="s">
+      <c r="H91" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H91" s="71" t="s">
+      <c r="I91" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I91" s="72"/>
       <c r="J91" s="72"/>
       <c r="K91" s="72"/>
-      <c r="L91" s="73"/>
-    </row>
-    <row r="92" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="190"/>
-      <c r="B92" s="206" t="s">
+      <c r="L91" s="72"/>
+      <c r="M91" s="73"/>
+    </row>
+    <row r="92" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="195"/>
+      <c r="B92">
+        <v>80</v>
+      </c>
+      <c r="C92" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C92" s="206" t="s">
+      <c r="D92" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="206" t="s">
+      <c r="E92" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="E92" s="68" t="s">
+      <c r="F92" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="68" t="s">
+      <c r="H92" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H92" s="71" t="s">
+      <c r="I92" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I92" s="72"/>
       <c r="J92" s="72"/>
       <c r="K92" s="72"/>
-      <c r="L92" s="73"/>
-    </row>
-    <row r="93" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="190"/>
-      <c r="B93" s="206" t="s">
+      <c r="L92" s="72"/>
+      <c r="M92" s="73"/>
+    </row>
+    <row r="93" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="195"/>
+      <c r="B93">
+        <v>80</v>
+      </c>
+      <c r="C93" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C93" s="206" t="s">
+      <c r="D93" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D93" s="206" t="s">
+      <c r="E93" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="E93" s="68" t="s">
+      <c r="F93" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G93" s="68" t="s">
+      <c r="H93" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H93" s="71" t="s">
+      <c r="I93" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I93" s="72"/>
       <c r="J93" s="72"/>
       <c r="K93" s="72"/>
-      <c r="L93" s="73"/>
-    </row>
-    <row r="94" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="190"/>
-      <c r="B94" s="206" t="s">
+      <c r="L93" s="72"/>
+      <c r="M93" s="73"/>
+    </row>
+    <row r="94" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="195"/>
+      <c r="B94">
+        <v>80</v>
+      </c>
+      <c r="C94" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="206" t="s">
+      <c r="D94" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="206" t="s">
+      <c r="E94" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="E94" s="68" t="s">
+      <c r="F94" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G94" s="68" t="s">
+      <c r="H94" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H94" s="71" t="s">
+      <c r="I94" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I94" s="72"/>
       <c r="J94" s="72"/>
       <c r="K94" s="72"/>
-      <c r="L94" s="73"/>
-    </row>
-    <row r="95" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="190"/>
-      <c r="B95" s="206" t="s">
+      <c r="L94" s="72"/>
+      <c r="M94" s="73"/>
+    </row>
+    <row r="95" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="195"/>
+      <c r="B95">
+        <v>80</v>
+      </c>
+      <c r="C95" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C95" s="206" t="s">
+      <c r="D95" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="D95" s="206" t="s">
+      <c r="E95" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="E95" s="68" t="s">
+      <c r="F95" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G95" s="68" t="s">
+      <c r="H95" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H95" s="71" t="s">
+      <c r="I95" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I95" s="72"/>
       <c r="J95" s="72"/>
       <c r="K95" s="72"/>
-      <c r="L95" s="73"/>
-    </row>
-    <row r="96" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="190"/>
-      <c r="B96" s="206" t="s">
+      <c r="L95" s="72"/>
+      <c r="M95" s="73"/>
+    </row>
+    <row r="96" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="195"/>
+      <c r="B96">
+        <v>80</v>
+      </c>
+      <c r="C96" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C96" s="206" t="s">
+      <c r="D96" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D96" s="206" t="s">
+      <c r="E96" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E96" s="68" t="s">
+      <c r="F96" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G96" s="68" t="s">
+      <c r="H96" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H96" s="71" t="s">
+      <c r="I96" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I96" s="72"/>
       <c r="J96" s="72"/>
       <c r="K96" s="72"/>
-      <c r="L96" s="73"/>
-    </row>
-    <row r="97" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="190"/>
-      <c r="B97" s="206" t="s">
+      <c r="L96" s="72"/>
+      <c r="M96" s="73"/>
+    </row>
+    <row r="97" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="195"/>
+      <c r="B97">
+        <v>80</v>
+      </c>
+      <c r="C97" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C97" s="206" t="s">
+      <c r="D97" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D97" s="206" t="s">
+      <c r="E97" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E97" s="68" t="s">
+      <c r="F97" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G97" s="68" t="s">
+      <c r="H97" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H97" s="71" t="s">
+      <c r="I97" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I97" s="72"/>
       <c r="J97" s="72"/>
       <c r="K97" s="72"/>
-      <c r="L97" s="73"/>
-    </row>
-    <row r="98" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="190"/>
-      <c r="B98" s="206" t="s">
+      <c r="L97" s="72"/>
+      <c r="M97" s="73"/>
+    </row>
+    <row r="98" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="195"/>
+      <c r="B98">
+        <v>80</v>
+      </c>
+      <c r="C98" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="C98" s="206" t="s">
+      <c r="D98" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="206" t="s">
+      <c r="E98" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="E98" s="68" t="s">
+      <c r="F98" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G98" s="68" t="s">
+      <c r="H98" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H98" s="71" t="s">
+      <c r="I98" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I98" s="72"/>
       <c r="J98" s="72"/>
       <c r="K98" s="72"/>
-      <c r="L98" s="73"/>
-    </row>
-    <row r="99" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="190"/>
-      <c r="B99" s="206" t="s">
+      <c r="L98" s="72"/>
+      <c r="M98" s="73"/>
+    </row>
+    <row r="99" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="195"/>
+      <c r="B99">
+        <v>80</v>
+      </c>
+      <c r="C99" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="C99" s="206" t="s">
+      <c r="D99" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D99" s="206" t="s">
+      <c r="E99" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="E99" s="68" t="s">
+      <c r="F99" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G99" s="68" t="s">
+      <c r="H99" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H99" s="71" t="s">
+      <c r="I99" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I99" s="72"/>
       <c r="J99" s="72"/>
       <c r="K99" s="72"/>
-      <c r="L99" s="73"/>
-    </row>
-    <row r="100" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="190"/>
-      <c r="B100" s="206" t="s">
+      <c r="L99" s="72"/>
+      <c r="M99" s="73"/>
+    </row>
+    <row r="100" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="195"/>
+      <c r="B100">
+        <v>80</v>
+      </c>
+      <c r="C100" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="206" t="s">
+      <c r="D100" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D100" s="206" t="s">
+      <c r="E100" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="E100" s="68" t="s">
+      <c r="F100" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G100" s="68" t="s">
+      <c r="H100" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H100" s="71" t="s">
+      <c r="I100" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I100" s="72"/>
       <c r="J100" s="72"/>
       <c r="K100" s="72"/>
-      <c r="L100" s="73"/>
-    </row>
-    <row r="101" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="190"/>
-      <c r="B101" s="206" t="s">
+      <c r="L100" s="72"/>
+      <c r="M100" s="73"/>
+    </row>
+    <row r="101" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="195"/>
+      <c r="B101">
+        <v>80</v>
+      </c>
+      <c r="C101" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="C101" s="206" t="s">
+      <c r="D101" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="D101" s="206" t="s">
+      <c r="E101" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="E101" s="68" t="s">
+      <c r="F101" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G101" s="68" t="s">
+      <c r="H101" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H101" s="71" t="s">
+      <c r="I101" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I101" s="72"/>
       <c r="J101" s="72"/>
       <c r="K101" s="72"/>
-      <c r="L101" s="73"/>
-    </row>
-    <row r="102" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="190"/>
-      <c r="B102" s="206" t="s">
+      <c r="L101" s="72"/>
+      <c r="M101" s="73"/>
+    </row>
+    <row r="102" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="195"/>
+      <c r="B102">
+        <v>80</v>
+      </c>
+      <c r="C102" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="C102" s="206" t="s">
+      <c r="D102" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D102" s="206" t="s">
+      <c r="E102" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E102" s="68" t="s">
+      <c r="F102" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G102" s="68" t="s">
+      <c r="H102" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H102" s="71" t="s">
+      <c r="I102" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I102" s="72"/>
       <c r="J102" s="72"/>
       <c r="K102" s="72"/>
-      <c r="L102" s="73"/>
-    </row>
-    <row r="103" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="191"/>
-      <c r="B103" s="208" t="s">
+      <c r="L102" s="72"/>
+      <c r="M102" s="73"/>
+    </row>
+    <row r="103" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="196"/>
+      <c r="B103">
+        <v>80</v>
+      </c>
+      <c r="C103" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="208" t="s">
+      <c r="D103" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="D103" s="208" t="s">
+      <c r="E103" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="E103" s="69" t="s">
+      <c r="F103" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="F103" s="69"/>
-      <c r="G103" s="69" t="s">
+      <c r="G103" s="69"/>
+      <c r="H103" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="H103" s="74" t="s">
+      <c r="I103" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="I103" s="75"/>
       <c r="J103" s="75"/>
       <c r="K103" s="75"/>
-      <c r="L103" s="76"/>
-    </row>
-    <row r="104" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="190" t="s">
+      <c r="L103" s="75"/>
+      <c r="M103" s="76"/>
+    </row>
+    <row r="104" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="B104" s="206" t="s">
+      <c r="B104">
+        <v>65</v>
+      </c>
+      <c r="C104" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C104" s="206" t="s">
+      <c r="D104" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D104" s="206" t="s">
+      <c r="E104" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="E104" s="68" t="s">
+      <c r="F104" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F104" s="68">
-        <v>65</v>
-      </c>
-      <c r="G104" s="68" t="s">
+      <c r="G104"/>
+      <c r="H104" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="H104" s="71" t="s">
+      <c r="I104" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I104" s="72"/>
       <c r="J104" s="72"/>
       <c r="K104" s="72"/>
-      <c r="L104" s="73"/>
-    </row>
-    <row r="105" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="190"/>
-      <c r="B105" s="206" t="s">
+      <c r="L104" s="72"/>
+      <c r="M104" s="73"/>
+    </row>
+    <row r="105" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="195"/>
+      <c r="B105">
+        <v>60</v>
+      </c>
+      <c r="C105" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="206" t="s">
+      <c r="D105" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D105" s="206" t="s">
+      <c r="E105" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="E105" s="68" t="s">
+      <c r="F105" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F105" s="68">
-        <v>60</v>
-      </c>
-      <c r="G105" s="68" t="s">
+      <c r="G105"/>
+      <c r="H105" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="H105" s="71" t="s">
+      <c r="I105" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I105" s="72"/>
       <c r="J105" s="72"/>
       <c r="K105" s="72"/>
-      <c r="L105" s="73"/>
-    </row>
-    <row r="106" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="190"/>
-      <c r="B106" s="206" t="s">
+      <c r="L105" s="72"/>
+      <c r="M105" s="73"/>
+    </row>
+    <row r="106" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="195"/>
+      <c r="B106">
+        <v>75</v>
+      </c>
+      <c r="C106" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C106" s="206" t="s">
+      <c r="D106" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="D106" s="206" t="s">
+      <c r="E106" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="E106" s="68" t="s">
+      <c r="F106" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F106" s="68">
-        <v>75</v>
-      </c>
-      <c r="G106" s="68" t="s">
+      <c r="G106"/>
+      <c r="H106" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="H106" s="71" t="s">
+      <c r="I106" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I106" s="72"/>
       <c r="J106" s="72"/>
       <c r="K106" s="72"/>
-      <c r="L106" s="73"/>
-    </row>
-    <row r="107" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="190"/>
-      <c r="B107" s="206" t="s">
+      <c r="L106" s="72"/>
+      <c r="M106" s="73"/>
+    </row>
+    <row r="107" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="195"/>
+      <c r="B107">
+        <v>60</v>
+      </c>
+      <c r="C107" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="207" t="s">
+      <c r="D107" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="D107" s="206" t="s">
+      <c r="E107" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="E107" s="68" t="s">
+      <c r="F107" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F107" s="68">
-        <v>60</v>
-      </c>
-      <c r="G107" s="68" t="s">
+      <c r="G107"/>
+      <c r="H107" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="H107" s="71" t="s">
+      <c r="I107" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I107" s="72"/>
       <c r="J107" s="72"/>
       <c r="K107" s="72"/>
-      <c r="L107" s="73"/>
-    </row>
-    <row r="108" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="190"/>
-      <c r="B108" s="206" t="s">
+      <c r="L107" s="72"/>
+      <c r="M107" s="73"/>
+    </row>
+    <row r="108" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="195"/>
+      <c r="B108">
+        <v>60</v>
+      </c>
+      <c r="C108" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C108" s="206" t="s">
+      <c r="D108" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="D108" s="206" t="s">
+      <c r="E108" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="E108" s="68" t="s">
+      <c r="F108" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F108" s="68">
-        <v>60</v>
-      </c>
-      <c r="G108" s="68" t="s">
+      <c r="G108"/>
+      <c r="H108" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="H108" s="71" t="s">
+      <c r="I108" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I108" s="72"/>
       <c r="J108" s="72"/>
       <c r="K108" s="72"/>
-      <c r="L108" s="73"/>
-    </row>
-    <row r="109" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="190"/>
-      <c r="B109" s="206" t="s">
+      <c r="L108" s="72"/>
+      <c r="M108" s="73"/>
+    </row>
+    <row r="109" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="195"/>
+      <c r="B109">
+        <v>60</v>
+      </c>
+      <c r="C109" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="206" t="s">
+      <c r="D109" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="D109" s="206" t="s">
+      <c r="E109" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="E109" s="68" t="s">
+      <c r="F109" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F109" s="68">
-        <v>60</v>
-      </c>
-      <c r="G109" s="68" t="s">
+      <c r="G109"/>
+      <c r="H109" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="H109" s="71" t="s">
+      <c r="I109" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I109" s="72"/>
       <c r="J109" s="72"/>
       <c r="K109" s="72"/>
-      <c r="L109" s="73"/>
-    </row>
-    <row r="110" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="190"/>
-      <c r="B110" s="206" t="s">
+      <c r="L109" s="72"/>
+      <c r="M109" s="73"/>
+    </row>
+    <row r="110" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="195"/>
+      <c r="B110">
+        <v>60</v>
+      </c>
+      <c r="C110" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="206" t="s">
+      <c r="D110" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="D110" s="206" t="s">
+      <c r="E110" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="E110" s="68" t="s">
+      <c r="F110" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F110" s="68">
-        <v>60</v>
-      </c>
-      <c r="G110" s="68" t="s">
+      <c r="G110"/>
+      <c r="H110" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="H110" s="71" t="s">
+      <c r="I110" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I110" s="72"/>
       <c r="J110" s="72"/>
       <c r="K110" s="72"/>
-      <c r="L110" s="73"/>
-    </row>
-    <row r="111" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="190"/>
-      <c r="B111" s="206" t="s">
+      <c r="L110" s="72"/>
+      <c r="M110" s="73"/>
+    </row>
+    <row r="111" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="195"/>
+      <c r="B111">
+        <v>120</v>
+      </c>
+      <c r="C111" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C111" s="206" t="s">
+      <c r="D111" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="D111" s="206" t="s">
+      <c r="E111" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="E111" s="68" t="s">
+      <c r="F111" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F111" s="68">
-        <v>120</v>
-      </c>
-      <c r="G111" s="68" t="s">
+      <c r="G111"/>
+      <c r="H111" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="H111" s="71" t="s">
+      <c r="I111" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I111" s="72"/>
       <c r="J111" s="72"/>
       <c r="K111" s="72"/>
-      <c r="L111" s="73"/>
-    </row>
-    <row r="112" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="191"/>
-      <c r="B112" s="208" t="s">
+      <c r="L111" s="72"/>
+      <c r="M111" s="73"/>
+    </row>
+    <row r="112" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="196"/>
+      <c r="B112">
+        <v>120</v>
+      </c>
+      <c r="C112" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C112" s="208" t="s">
+      <c r="D112" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="208" t="s">
+      <c r="E112" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="E112" s="69" t="s">
+      <c r="F112" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="F112" s="69">
-        <v>120</v>
-      </c>
-      <c r="G112" s="69" t="s">
+      <c r="G112"/>
+      <c r="H112" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="H112" s="74" t="s">
+      <c r="I112" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="I112" s="75"/>
       <c r="J112" s="75"/>
       <c r="K112" s="75"/>
-      <c r="L112" s="76"/>
+      <c r="L112" s="75"/>
+      <c r="M112" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="I1:M1"/>
     <mergeCell ref="A104:A112"/>
     <mergeCell ref="A74:A103"/>
     <mergeCell ref="A2:A9"/>
@@ -9682,6 +10020,1255 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B786EA-38D0-3D49-881C-B0087CE70EB2}">
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" style="212" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="211" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>65</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>65</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>65</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>65</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>65</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>65</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>65</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>210</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>210</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>210</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>50</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>50</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>50</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>50</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>50</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>50</v>
+      </c>
+      <c r="B36" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>50</v>
+      </c>
+      <c r="B37" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>50</v>
+      </c>
+      <c r="B38" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>50</v>
+      </c>
+      <c r="B39" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>50</v>
+      </c>
+      <c r="B40" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>50</v>
+      </c>
+      <c r="B41" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>50</v>
+      </c>
+      <c r="B43" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>50</v>
+      </c>
+      <c r="B44" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>120</v>
+      </c>
+      <c r="B45" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>120</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>120</v>
+      </c>
+      <c r="B47" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>120</v>
+      </c>
+      <c r="B48" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="82" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>180</v>
+      </c>
+      <c r="B49" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>180</v>
+      </c>
+      <c r="B50" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>180</v>
+      </c>
+      <c r="B51" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>180</v>
+      </c>
+      <c r="B52" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>180</v>
+      </c>
+      <c r="B53" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>180</v>
+      </c>
+      <c r="B54" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>170</v>
+      </c>
+      <c r="B55" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>170</v>
+      </c>
+      <c r="B56" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>170</v>
+      </c>
+      <c r="B57" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>170</v>
+      </c>
+      <c r="B58" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>170</v>
+      </c>
+      <c r="B59" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>170</v>
+      </c>
+      <c r="B60" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>170</v>
+      </c>
+      <c r="B61" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>170</v>
+      </c>
+      <c r="B62" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>170</v>
+      </c>
+      <c r="B63" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>170</v>
+      </c>
+      <c r="B64" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>170</v>
+      </c>
+      <c r="B65" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>170</v>
+      </c>
+      <c r="B66" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>170</v>
+      </c>
+      <c r="B67" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>170</v>
+      </c>
+      <c r="B68" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>170</v>
+      </c>
+      <c r="B69" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>170</v>
+      </c>
+      <c r="B70" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>170</v>
+      </c>
+      <c r="B71" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>170</v>
+      </c>
+      <c r="B72" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>170</v>
+      </c>
+      <c r="B73" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>80</v>
+      </c>
+      <c r="B74" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>80</v>
+      </c>
+      <c r="B75" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>80</v>
+      </c>
+      <c r="B76" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>80</v>
+      </c>
+      <c r="B77" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>80</v>
+      </c>
+      <c r="B78" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>80</v>
+      </c>
+      <c r="B79" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>80</v>
+      </c>
+      <c r="B84" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>80</v>
+      </c>
+      <c r="B85" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>80</v>
+      </c>
+      <c r="B86" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>80</v>
+      </c>
+      <c r="B87" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>80</v>
+      </c>
+      <c r="B88" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>80</v>
+      </c>
+      <c r="B89" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>80</v>
+      </c>
+      <c r="B90" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>80</v>
+      </c>
+      <c r="B91" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>80</v>
+      </c>
+      <c r="B92" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" s="80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>80</v>
+      </c>
+      <c r="B93" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" s="80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>80</v>
+      </c>
+      <c r="B94" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>80</v>
+      </c>
+      <c r="B95" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>80</v>
+      </c>
+      <c r="B96" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" s="80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>80</v>
+      </c>
+      <c r="B97" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" s="80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>80</v>
+      </c>
+      <c r="B98" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>80</v>
+      </c>
+      <c r="B99" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>80</v>
+      </c>
+      <c r="B100" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>80</v>
+      </c>
+      <c r="B101" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>80</v>
+      </c>
+      <c r="B102" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>80</v>
+      </c>
+      <c r="B103" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>65</v>
+      </c>
+      <c r="B104" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>60</v>
+      </c>
+      <c r="B105" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>75</v>
+      </c>
+      <c r="B106" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>60</v>
+      </c>
+      <c r="B107" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>60</v>
+      </c>
+      <c r="B108" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C108" s="80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>60</v>
+      </c>
+      <c r="B109" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>60</v>
+      </c>
+      <c r="B110" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>120</v>
+      </c>
+      <c r="B111" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C111" s="80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>120</v>
+      </c>
+      <c r="B112" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C112" s="82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9865,18 +11452,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9899,14 +11486,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1743F9F3-C868-4F13-BF30-5891BF141274}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{386182A4-9195-4378-B8CC-416CD750E744}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -9921,4 +11500,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1743F9F3-C868-4F13-BF30-5891BF141274}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>